--- a/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>VTRU</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,40 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,22 +711,25 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>48000</v>
+        <v>22300</v>
       </c>
       <c r="E8" s="3">
-        <v>86300</v>
+        <v>45500</v>
       </c>
       <c r="F8" s="3">
-        <v>43900</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>81600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>41500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,22 +743,25 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>19800</v>
+        <v>10400</v>
       </c>
       <c r="E9" s="3">
-        <v>39600</v>
+        <v>18800</v>
       </c>
       <c r="F9" s="3">
-        <v>19700</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>37500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>18600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,22 +775,25 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>28200</v>
+        <v>11900</v>
       </c>
       <c r="E10" s="3">
-        <v>46700</v>
+        <v>26700</v>
       </c>
       <c r="F10" s="3">
-        <v>24200</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>44200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>22900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,22 +885,25 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="E14" s="3">
-        <v>10900</v>
+        <v>6200</v>
       </c>
       <c r="F14" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>10300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -897,8 +917,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,22 +962,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40000</v>
+        <v>20200</v>
       </c>
       <c r="E17" s="3">
-        <v>93000</v>
+        <v>37800</v>
       </c>
       <c r="F17" s="3">
-        <v>44900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>88000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>42500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -965,23 +992,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8100</v>
+        <v>2100</v>
       </c>
       <c r="E18" s="3">
-        <v>-6700</v>
+        <v>7600</v>
       </c>
       <c r="F18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,22 +1040,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
-        <v>2900</v>
-      </c>
       <c r="F20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1500</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1036,22 +1070,25 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13800</v>
+        <v>7500</v>
       </c>
       <c r="E21" s="3">
-        <v>7900</v>
+        <v>13100</v>
       </c>
       <c r="F21" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>7400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1065,22 +1102,25 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="E22" s="3">
-        <v>10600</v>
+        <v>3200</v>
       </c>
       <c r="F22" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1094,22 +1134,25 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5900</v>
+        <v>2700</v>
       </c>
       <c r="E23" s="3">
-        <v>-14400</v>
+        <v>5600</v>
       </c>
       <c r="F23" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-13600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-4600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1166,25 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3900</v>
+        <v>2400</v>
       </c>
       <c r="E24" s="3">
-        <v>-2000</v>
+        <v>-3700</v>
       </c>
       <c r="F24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>-1900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,22 +1230,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9800</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>-12400</v>
+        <v>9300</v>
       </c>
       <c r="F26" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-11700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-4400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1210,22 +1262,25 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9800</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
-        <v>-12400</v>
+        <v>9300</v>
       </c>
       <c r="F27" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-11700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-4400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,22 +1422,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2900</v>
-      </c>
       <c r="F32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>-2700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1500</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1384,22 +1454,25 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9800</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
-        <v>-12400</v>
+        <v>9300</v>
       </c>
       <c r="F33" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-11700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-4400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,22 +1518,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9800</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
-        <v>-12400</v>
+        <v>9300</v>
       </c>
       <c r="F35" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-11700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-4400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1471,28 +1550,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,16 +1617,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29400</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>31300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>27800</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1560,16 +1647,19 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15000</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>100200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>14200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1589,16 +1679,19 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20600</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+        <v>20000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>19500</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,16 +1743,19 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9300</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8800</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1676,16 +1775,19 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>74300</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>153700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>70300</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1705,17 +1807,20 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,16 +1839,19 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36300</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>38600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>34400</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1763,16 +1871,19 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>123600</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>117200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>117000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,16 +1967,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13000</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>10900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>12300</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,16 +2031,19 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>247900</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+        <v>321700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>234600</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,16 +2093,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29900</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+        <v>28700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>28300</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1992,16 +2123,19 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2021,16 +2155,19 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14000</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+        <v>11300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13200</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2050,16 +2187,19 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48100</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+        <v>44400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>45500</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2079,16 +2219,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>95600</v>
+        <v>94000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>90400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2108,16 +2251,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>9900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>9400</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,16 +2379,19 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>153600</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+        <v>148300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>145400</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,16 +2553,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+        <v>173400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,16 +2681,19 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>94300</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+        <v>173400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>89200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2745,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,22 +2782,25 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9800</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
-        <v>-12400</v>
+        <v>9300</v>
       </c>
       <c r="F81" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-11700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-4400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,22 +2830,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4500</v>
+        <v>2300</v>
       </c>
       <c r="E83" s="3">
-        <v>11700</v>
+        <v>4300</v>
       </c>
       <c r="F83" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>11100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>5400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,22 +3020,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9300</v>
+        <v>7500</v>
       </c>
       <c r="E89" s="3">
-        <v>10500</v>
+        <v>8800</v>
       </c>
       <c r="F89" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>9900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>6500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,22 +3068,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3700</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-5300</v>
+        <v>-3500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-5000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2900</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,22 +3162,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7800</v>
+        <v>-87700</v>
       </c>
       <c r="E94" s="3">
-        <v>-9300</v>
+        <v>-7400</v>
       </c>
       <c r="F94" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-8800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-6200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,23 +3336,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>27500</v>
+        <v>83700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1200</v>
+        <v>26000</v>
       </c>
       <c r="F100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,23 +3400,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>28900</v>
+        <v>3500</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>27400</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>VTRU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,25 +714,28 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>22300</v>
+        <v>97400</v>
       </c>
       <c r="E8" s="3">
-        <v>45500</v>
+        <v>23700</v>
       </c>
       <c r="F8" s="3">
-        <v>81600</v>
+        <v>48200</v>
       </c>
       <c r="G8" s="3">
-        <v>41500</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>86500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -746,25 +749,28 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>10400</v>
+        <v>41500</v>
       </c>
       <c r="E9" s="3">
-        <v>18800</v>
+        <v>11000</v>
       </c>
       <c r="F9" s="3">
-        <v>37500</v>
+        <v>19900</v>
       </c>
       <c r="G9" s="3">
-        <v>18600</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>39700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>19700</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -778,25 +784,28 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11900</v>
+        <v>55900</v>
       </c>
       <c r="E10" s="3">
-        <v>26700</v>
+        <v>12600</v>
       </c>
       <c r="F10" s="3">
-        <v>44200</v>
+        <v>28300</v>
       </c>
       <c r="G10" s="3">
-        <v>22900</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>46800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>24300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -810,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +836,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,25 +904,28 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3800</v>
+        <v>14400</v>
       </c>
       <c r="E14" s="3">
-        <v>6200</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="3">
-        <v>10300</v>
+        <v>6500</v>
       </c>
       <c r="G14" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>10900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -920,8 +939,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,25 +988,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20200</v>
+        <v>86000</v>
       </c>
       <c r="E17" s="3">
-        <v>37800</v>
+        <v>21400</v>
       </c>
       <c r="F17" s="3">
-        <v>88000</v>
+        <v>40100</v>
       </c>
       <c r="G17" s="3">
-        <v>42500</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>93200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -995,26 +1021,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2100</v>
+        <v>11400</v>
       </c>
       <c r="E18" s="3">
-        <v>7600</v>
+        <v>2200</v>
       </c>
       <c r="F18" s="3">
-        <v>-6300</v>
+        <v>8100</v>
       </c>
       <c r="G18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,25 +1073,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3100</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
-        <v>2700</v>
-      </c>
       <c r="G20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1600</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1073,25 +1106,28 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7500</v>
+        <v>26400</v>
       </c>
       <c r="E21" s="3">
-        <v>13100</v>
+        <v>8000</v>
       </c>
       <c r="F21" s="3">
-        <v>7400</v>
+        <v>13800</v>
       </c>
       <c r="G21" s="3">
-        <v>5900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>7900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1105,25 +1141,28 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2500</v>
+        <v>10600</v>
       </c>
       <c r="E22" s="3">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="F22" s="3">
-        <v>10000</v>
+        <v>3300</v>
       </c>
       <c r="G22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>10600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1137,25 +1176,28 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2700</v>
+        <v>6200</v>
       </c>
       <c r="E23" s="3">
-        <v>5600</v>
+        <v>2900</v>
       </c>
       <c r="F23" s="3">
-        <v>-13600</v>
+        <v>6000</v>
       </c>
       <c r="G23" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-14500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-4900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1169,25 +1211,28 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2400</v>
+        <v>-3600</v>
       </c>
       <c r="E24" s="3">
-        <v>-3700</v>
+        <v>2500</v>
       </c>
       <c r="F24" s="3">
-        <v>-1900</v>
+        <v>-3900</v>
       </c>
       <c r="G24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>-2000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-200</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1201,8 +1246,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,25 +1281,28 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>9300</v>
-      </c>
       <c r="F26" s="3">
-        <v>-11700</v>
+        <v>9800</v>
       </c>
       <c r="G26" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-12400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-4700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1265,25 +1316,28 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>9300</v>
-      </c>
       <c r="F27" s="3">
-        <v>-11700</v>
+        <v>9800</v>
       </c>
       <c r="G27" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-12400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-4700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,25 +1491,28 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3100</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2700</v>
-      </c>
       <c r="G32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>-2900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1600</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1457,25 +1526,28 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>9300</v>
-      </c>
       <c r="F33" s="3">
-        <v>-11700</v>
+        <v>9800</v>
       </c>
       <c r="G33" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-12400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-4700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,25 +1596,28 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>9300</v>
-      </c>
       <c r="F35" s="3">
-        <v>-11700</v>
+        <v>9800</v>
       </c>
       <c r="G35" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-12400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-4700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1553,31 +1631,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,19 +1703,20 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31300</v>
+        <v>16100</v>
       </c>
       <c r="E41" s="3">
-        <v>27800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>33200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>29500</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1650,19 +1736,22 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100200</v>
+        <v>96600</v>
       </c>
       <c r="E42" s="3">
-        <v>14200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>106100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>15000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1682,19 +1771,22 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="E43" s="3">
-        <v>19500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>21200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>20700</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1714,8 +1806,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,19 +1841,22 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="E45" s="3">
-        <v>8800</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>9300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1778,19 +1876,22 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>153700</v>
+        <v>137300</v>
       </c>
       <c r="E46" s="3">
-        <v>70300</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>162800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>74500</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1810,20 +1911,23 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F47" s="3">
         <v>600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,19 +1946,22 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38600</v>
+        <v>42100</v>
       </c>
       <c r="E48" s="3">
-        <v>34400</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>40900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>36400</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1874,19 +1981,22 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>117200</v>
+        <v>124000</v>
       </c>
       <c r="E49" s="3">
-        <v>117000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>124200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>123900</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1906,8 +2016,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,19 +2086,22 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10900</v>
+        <v>11900</v>
       </c>
       <c r="E52" s="3">
-        <v>12300</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>11600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>13100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2121,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,19 +2156,22 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>321700</v>
+        <v>316600</v>
       </c>
       <c r="E54" s="3">
-        <v>234600</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>340800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>248500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2066,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,19 +2223,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28700</v>
+        <v>31400</v>
       </c>
       <c r="E57" s="3">
-        <v>28300</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>30400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>30000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2126,19 +2256,22 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4400</v>
+        <v>32800</v>
       </c>
       <c r="E58" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2158,19 +2291,22 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11300</v>
+        <v>7500</v>
       </c>
       <c r="E59" s="3">
-        <v>13200</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>12000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>14000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2190,19 +2326,22 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44400</v>
+        <v>71800</v>
       </c>
       <c r="E60" s="3">
-        <v>45500</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>47000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>48200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2222,19 +2361,22 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>94000</v>
+        <v>49900</v>
       </c>
       <c r="E61" s="3">
-        <v>90400</v>
+        <v>99500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>95800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2254,19 +2396,22 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9900</v>
+        <v>11500</v>
       </c>
       <c r="E62" s="3">
-        <v>9400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>10500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>10000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,19 +2536,22 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>148300</v>
+        <v>133200</v>
       </c>
       <c r="E66" s="3">
-        <v>145400</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>157100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>154000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,19 +2726,22 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>173400</v>
+        <v>183400</v>
       </c>
       <c r="E72" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>183700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-8400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,19 +2866,22 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>173400</v>
+        <v>183400</v>
       </c>
       <c r="E76" s="3">
-        <v>89200</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>183700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>94500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2716,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,31 +2936,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,25 +2976,28 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>9300</v>
-      </c>
       <c r="F81" s="3">
-        <v>-11700</v>
+        <v>9800</v>
       </c>
       <c r="G81" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-12400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-4700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,25 +3028,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2300</v>
+        <v>9700</v>
       </c>
       <c r="E83" s="3">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="F83" s="3">
-        <v>11100</v>
+        <v>4600</v>
       </c>
       <c r="G83" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>11700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>5700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2863,8 +3061,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,25 +3236,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7500</v>
+        <v>14200</v>
       </c>
       <c r="E89" s="3">
-        <v>8800</v>
+        <v>7900</v>
       </c>
       <c r="F89" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="G89" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>10500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>6800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,25 +3288,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-4800</v>
       </c>
       <c r="E91" s="3">
-        <v>-3500</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
-        <v>-5000</v>
+        <v>-3700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-5300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3101,8 +3321,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,25 +3391,28 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-87700</v>
+        <v>-114500</v>
       </c>
       <c r="E94" s="3">
-        <v>-7400</v>
+        <v>-92900</v>
       </c>
       <c r="F94" s="3">
-        <v>-8800</v>
+        <v>-7900</v>
       </c>
       <c r="G94" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-9300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-6600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3197,8 +3426,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,26 +3581,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>83700</v>
+        <v>115900</v>
       </c>
       <c r="E100" s="3">
-        <v>26000</v>
+        <v>88700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1100</v>
+        <v>27600</v>
       </c>
       <c r="G100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3371,8 +3616,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,26 +3651,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3500</v>
+        <v>15700</v>
       </c>
       <c r="E102" s="3">
-        <v>27400</v>
+        <v>3700</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
   <si>
     <t>VTRU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,28 +718,31 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>97400</v>
+        <v>27800</v>
       </c>
       <c r="E8" s="3">
-        <v>23700</v>
+        <v>95900</v>
       </c>
       <c r="F8" s="3">
-        <v>48200</v>
+        <v>23300</v>
       </c>
       <c r="G8" s="3">
-        <v>86500</v>
+        <v>47400</v>
       </c>
       <c r="H8" s="3">
-        <v>44000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>85200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>43300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -752,28 +756,31 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>41500</v>
+        <v>9800</v>
       </c>
       <c r="E9" s="3">
-        <v>11000</v>
+        <v>40900</v>
       </c>
       <c r="F9" s="3">
-        <v>19900</v>
+        <v>10900</v>
       </c>
       <c r="G9" s="3">
-        <v>39700</v>
+        <v>19600</v>
       </c>
       <c r="H9" s="3">
-        <v>19700</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>39100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>19400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -787,28 +794,31 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>55900</v>
+        <v>18100</v>
       </c>
       <c r="E10" s="3">
-        <v>12600</v>
+        <v>55000</v>
       </c>
       <c r="F10" s="3">
-        <v>28300</v>
+        <v>12400</v>
       </c>
       <c r="G10" s="3">
-        <v>46800</v>
+        <v>27800</v>
       </c>
       <c r="H10" s="3">
-        <v>24300</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>46100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>23900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +850,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,29 +924,32 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14400</v>
+        <v>4600</v>
       </c>
       <c r="E14" s="3">
-        <v>4000</v>
+        <v>14200</v>
       </c>
       <c r="F14" s="3">
-        <v>6500</v>
+        <v>3900</v>
       </c>
       <c r="G14" s="3">
-        <v>10900</v>
+        <v>6400</v>
       </c>
       <c r="H14" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I14" s="3">
         <v>4700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -942,8 +962,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,28 +1015,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86000</v>
+        <v>25500</v>
       </c>
       <c r="E17" s="3">
-        <v>21400</v>
+        <v>84600</v>
       </c>
       <c r="F17" s="3">
-        <v>40100</v>
+        <v>21100</v>
       </c>
       <c r="G17" s="3">
-        <v>93200</v>
+        <v>39500</v>
       </c>
       <c r="H17" s="3">
-        <v>45000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>91800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>44300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1024,29 +1051,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11400</v>
+        <v>2400</v>
       </c>
       <c r="E18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="F18" s="3">
-        <v>8100</v>
-      </c>
       <c r="G18" s="3">
-        <v>-6700</v>
+        <v>7900</v>
       </c>
       <c r="H18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,29 +1107,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
-        <v>3300</v>
+        <v>5200</v>
       </c>
       <c r="F20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
-        <v>2900</v>
-      </c>
       <c r="H20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,28 +1143,31 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>26400</v>
+        <v>6400</v>
       </c>
       <c r="E21" s="3">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="F21" s="3">
-        <v>13800</v>
+        <v>7800</v>
       </c>
       <c r="G21" s="3">
-        <v>7900</v>
+        <v>13600</v>
       </c>
       <c r="H21" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>7800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1144,28 +1181,31 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10600</v>
+        <v>2300</v>
       </c>
       <c r="E22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F22" s="3">
         <v>2600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3300</v>
       </c>
-      <c r="G22" s="3">
-        <v>10600</v>
-      </c>
       <c r="H22" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>10500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1179,28 +1219,31 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6200</v>
+        <v>1600</v>
       </c>
       <c r="E23" s="3">
-        <v>2900</v>
+        <v>6100</v>
       </c>
       <c r="F23" s="3">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="G23" s="3">
-        <v>-14500</v>
+        <v>5900</v>
       </c>
       <c r="H23" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-14200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-4800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1214,28 +1257,31 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3600</v>
+        <v>-2500</v>
       </c>
       <c r="E24" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G24" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>-100</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,28 +1333,31 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9800</v>
+        <v>4000</v>
       </c>
       <c r="E26" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
-        <v>9800</v>
-      </c>
       <c r="G26" s="3">
-        <v>-12400</v>
+        <v>9700</v>
       </c>
       <c r="H26" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-12200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1319,28 +1371,31 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9800</v>
+        <v>4000</v>
       </c>
       <c r="E27" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
-        <v>9800</v>
-      </c>
       <c r="G27" s="3">
-        <v>-12400</v>
+        <v>9700</v>
       </c>
       <c r="H27" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-12200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,29 +1561,32 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
-        <v>-3300</v>
+        <v>-5200</v>
       </c>
       <c r="F32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,28 +1599,31 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9800</v>
+        <v>4000</v>
       </c>
       <c r="E33" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
-        <v>9800</v>
-      </c>
       <c r="G33" s="3">
-        <v>-12400</v>
+        <v>9700</v>
       </c>
       <c r="H33" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-12200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,28 +1675,31 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9800</v>
+        <v>4000</v>
       </c>
       <c r="E35" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
-        <v>9800</v>
-      </c>
       <c r="G35" s="3">
-        <v>-12400</v>
+        <v>9700</v>
       </c>
       <c r="H35" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-12200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1634,34 +1713,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,22 +1790,23 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16100</v>
+        <v>17600</v>
       </c>
       <c r="E41" s="3">
-        <v>33200</v>
+        <v>15900</v>
       </c>
       <c r="F41" s="3">
-        <v>29500</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>32700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>29000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1826,25 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>96600</v>
+        <v>95600</v>
       </c>
       <c r="E42" s="3">
-        <v>106100</v>
+        <v>95200</v>
       </c>
       <c r="F42" s="3">
-        <v>15000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>104500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>14800</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1774,22 +1864,25 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22000</v>
+        <v>23200</v>
       </c>
       <c r="E43" s="3">
-        <v>21200</v>
+        <v>21700</v>
       </c>
       <c r="F43" s="3">
-        <v>20700</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>20800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>20400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1809,8 +1902,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,22 +1940,25 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
-        <v>2400</v>
-      </c>
       <c r="F45" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>2300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>9200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1879,22 +1978,25 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>137300</v>
+        <v>139200</v>
       </c>
       <c r="E46" s="3">
-        <v>162800</v>
+        <v>135200</v>
       </c>
       <c r="F46" s="3">
-        <v>74500</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>160300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>73400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1914,23 +2016,26 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E47" s="3">
         <v>1300</v>
       </c>
       <c r="F47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,22 +2054,25 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42100</v>
+        <v>42400</v>
       </c>
       <c r="E48" s="3">
-        <v>40900</v>
+        <v>41500</v>
       </c>
       <c r="F48" s="3">
-        <v>36400</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>40300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>35800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1984,22 +2092,25 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>124000</v>
+        <v>122100</v>
       </c>
       <c r="E49" s="3">
-        <v>124200</v>
+        <v>122100</v>
       </c>
       <c r="F49" s="3">
-        <v>123900</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>122300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>122000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2019,8 +2130,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,22 +2206,25 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11900</v>
+        <v>15700</v>
       </c>
       <c r="E52" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="F52" s="3">
-        <v>13100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>11400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>12900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,22 +2282,25 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>316600</v>
+        <v>320600</v>
       </c>
       <c r="E54" s="3">
-        <v>340800</v>
+        <v>311700</v>
       </c>
       <c r="F54" s="3">
-        <v>248500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>335600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>244700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,22 +2354,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31400</v>
+        <v>31900</v>
       </c>
       <c r="E57" s="3">
-        <v>30400</v>
+        <v>30900</v>
       </c>
       <c r="F57" s="3">
-        <v>30000</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>29900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>29600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2259,22 +2390,25 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32800</v>
+        <v>32600</v>
       </c>
       <c r="E58" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F58" s="3">
         <v>4600</v>
       </c>
-      <c r="F58" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>4100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2294,22 +2428,25 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7500</v>
+        <v>10300</v>
       </c>
       <c r="E59" s="3">
-        <v>12000</v>
+        <v>7400</v>
       </c>
       <c r="F59" s="3">
-        <v>14000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>13800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2329,22 +2466,25 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>71800</v>
+        <v>74900</v>
       </c>
       <c r="E60" s="3">
-        <v>47000</v>
+        <v>70700</v>
       </c>
       <c r="F60" s="3">
-        <v>48200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>46300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>47500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2364,22 +2504,25 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>49900</v>
+        <v>48600</v>
       </c>
       <c r="E61" s="3">
-        <v>99500</v>
+        <v>49100</v>
       </c>
       <c r="F61" s="3">
-        <v>95800</v>
+        <v>98000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>94300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2399,22 +2542,25 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11500</v>
+        <v>12300</v>
       </c>
       <c r="E62" s="3">
-        <v>10500</v>
+        <v>11400</v>
       </c>
       <c r="F62" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>9800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2434,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,22 +2694,25 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>133200</v>
+        <v>135700</v>
       </c>
       <c r="E66" s="3">
-        <v>157100</v>
+        <v>131100</v>
       </c>
       <c r="F66" s="3">
-        <v>154000</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>154700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>151600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,22 +2900,25 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>183400</v>
+        <v>184900</v>
       </c>
       <c r="E72" s="3">
-        <v>183700</v>
+        <v>180600</v>
       </c>
       <c r="F72" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>180900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-8200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,22 +3052,25 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>183400</v>
+        <v>184900</v>
       </c>
       <c r="E76" s="3">
-        <v>183700</v>
+        <v>180600</v>
       </c>
       <c r="F76" s="3">
-        <v>94500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>180900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>93000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,34 +3128,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,28 +3171,31 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9800</v>
+        <v>4000</v>
       </c>
       <c r="E81" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
-        <v>9800</v>
-      </c>
       <c r="G81" s="3">
-        <v>-12400</v>
+        <v>9700</v>
       </c>
       <c r="H81" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-12200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,28 +3227,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9700</v>
+        <v>2600</v>
       </c>
       <c r="E83" s="3">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="F83" s="3">
-        <v>4600</v>
+        <v>2400</v>
       </c>
       <c r="G83" s="3">
-        <v>11700</v>
+        <v>4500</v>
       </c>
       <c r="H83" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>11500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>5600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3064,8 +3263,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,28 +3453,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14200</v>
+        <v>5800</v>
       </c>
       <c r="E89" s="3">
-        <v>7900</v>
+        <v>14000</v>
       </c>
       <c r="F89" s="3">
-        <v>9300</v>
+        <v>7800</v>
       </c>
       <c r="G89" s="3">
-        <v>10500</v>
+        <v>9200</v>
       </c>
       <c r="H89" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>6700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3274,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,28 +3509,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4800</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-3700</v>
-      </c>
       <c r="G91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-5300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-3000</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3324,8 +3545,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,28 +3621,31 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-114500</v>
+        <v>-3600</v>
       </c>
       <c r="E94" s="3">
-        <v>-92900</v>
+        <v>-112700</v>
       </c>
       <c r="F94" s="3">
-        <v>-7900</v>
+        <v>-91500</v>
       </c>
       <c r="G94" s="3">
-        <v>-9300</v>
+        <v>-7700</v>
       </c>
       <c r="H94" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-9100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-6500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3429,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,29 +3827,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>115900</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
-        <v>88700</v>
+        <v>114100</v>
       </c>
       <c r="F100" s="3">
-        <v>27600</v>
+        <v>87300</v>
       </c>
       <c r="G100" s="3">
+        <v>27100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,8 +3865,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,29 +3903,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15700</v>
+        <v>1800</v>
       </c>
       <c r="E102" s="3">
-        <v>3700</v>
+        <v>15400</v>
       </c>
       <c r="F102" s="3">
-        <v>29000</v>
+        <v>3600</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>28600</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>VTRU</t>
   </si>
@@ -668,9 +668,10 @@
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -701,13 +702,13 @@
         <v>44012</v>
       </c>
       <c r="H7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -727,25 +728,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>27800</v>
+        <v>26900</v>
       </c>
       <c r="E8" s="3">
-        <v>95900</v>
+        <v>92700</v>
       </c>
       <c r="F8" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="G8" s="3">
-        <v>47400</v>
+        <v>45800</v>
       </c>
       <c r="H8" s="3">
-        <v>85200</v>
+        <v>23000</v>
       </c>
       <c r="I8" s="3">
-        <v>43300</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>82300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>41900</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -765,25 +766,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="E9" s="3">
-        <v>40900</v>
+        <v>39500</v>
       </c>
       <c r="F9" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="G9" s="3">
-        <v>19600</v>
+        <v>18900</v>
       </c>
       <c r="H9" s="3">
-        <v>39100</v>
+        <v>10200</v>
       </c>
       <c r="I9" s="3">
-        <v>19400</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>37800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>18800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -803,25 +804,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="E10" s="3">
-        <v>55000</v>
+        <v>53200</v>
       </c>
       <c r="F10" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="G10" s="3">
-        <v>27800</v>
+        <v>26900</v>
       </c>
       <c r="H10" s="3">
-        <v>46100</v>
+        <v>12800</v>
       </c>
       <c r="I10" s="3">
-        <v>23900</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>44600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>23100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -933,25 +934,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E14" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="F14" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G14" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H14" s="3">
-        <v>10700</v>
+        <v>3000</v>
       </c>
       <c r="I14" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4500</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1022,25 +1023,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25500</v>
+        <v>24600</v>
       </c>
       <c r="E17" s="3">
-        <v>84600</v>
+        <v>81800</v>
       </c>
       <c r="F17" s="3">
-        <v>21100</v>
+        <v>20400</v>
       </c>
       <c r="G17" s="3">
-        <v>39500</v>
+        <v>38100</v>
       </c>
       <c r="H17" s="3">
-        <v>91800</v>
+        <v>21500</v>
       </c>
       <c r="I17" s="3">
-        <v>44300</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>88700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>42800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1060,25 +1061,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E18" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="F18" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G18" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="H18" s="3">
-        <v>-6600</v>
+        <v>1500</v>
       </c>
       <c r="I18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1114,25 +1115,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E20" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="F20" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G20" s="3">
         <v>1200</v>
       </c>
       <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
         <v>2800</v>
       </c>
-      <c r="I20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>1500</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1152,25 +1153,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="E21" s="3">
-        <v>26000</v>
+        <v>25100</v>
       </c>
       <c r="F21" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="G21" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="H21" s="3">
-        <v>7800</v>
+        <v>4400</v>
       </c>
       <c r="I21" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>7500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1190,25 +1191,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E22" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="F22" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G22" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H22" s="3">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="I22" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>10100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5200</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1228,25 +1229,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E23" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="F23" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G23" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="H23" s="3">
-        <v>-14200</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-13800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-4600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1266,25 +1267,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H24" s="3">
         <v>-2500</v>
       </c>
-      <c r="E24" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-2000</v>
-      </c>
       <c r="I24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1342,25 +1343,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E26" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="F26" s="3">
         <v>300</v>
       </c>
       <c r="G26" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="H26" s="3">
-        <v>-12200</v>
+        <v>2500</v>
       </c>
       <c r="I26" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-11800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-4500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1380,25 +1381,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E27" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="F27" s="3">
         <v>300</v>
       </c>
       <c r="G27" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="H27" s="3">
-        <v>-12200</v>
+        <v>2500</v>
       </c>
       <c r="I27" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-11800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-4500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1570,25 +1571,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E32" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="F32" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G32" s="3">
         <v>-1200</v>
       </c>
       <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>-1500</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1608,25 +1609,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E33" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="F33" s="3">
         <v>300</v>
       </c>
       <c r="G33" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="H33" s="3">
-        <v>-12200</v>
+        <v>2500</v>
       </c>
       <c r="I33" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-11800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-4500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1684,25 +1685,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E35" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="F35" s="3">
         <v>300</v>
       </c>
       <c r="G35" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="H35" s="3">
-        <v>-12200</v>
+        <v>2500</v>
       </c>
       <c r="I35" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-11800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-4500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,13 +1740,13 @@
         <v>44012</v>
       </c>
       <c r="H38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1797,16 +1798,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="E41" s="3">
-        <v>15900</v>
+        <v>15300</v>
       </c>
       <c r="F41" s="3">
-        <v>32700</v>
+        <v>31600</v>
       </c>
       <c r="G41" s="3">
-        <v>29000</v>
+        <v>28100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1835,16 +1836,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>95600</v>
+        <v>92400</v>
       </c>
       <c r="E42" s="3">
-        <v>95200</v>
+        <v>92000</v>
       </c>
       <c r="F42" s="3">
-        <v>104500</v>
+        <v>101000</v>
       </c>
       <c r="G42" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1873,16 +1874,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="E43" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="F43" s="3">
-        <v>20800</v>
+        <v>20100</v>
       </c>
       <c r="G43" s="3">
-        <v>20400</v>
+        <v>19700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1949,16 +1950,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E45" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G45" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1987,16 +1988,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>139200</v>
+        <v>134600</v>
       </c>
       <c r="E46" s="3">
-        <v>135200</v>
+        <v>130600</v>
       </c>
       <c r="F46" s="3">
-        <v>160300</v>
+        <v>155000</v>
       </c>
       <c r="G46" s="3">
-        <v>73400</v>
+        <v>70900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2028,7 +2029,7 @@
         <v>1200</v>
       </c>
       <c r="E47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F47" s="3">
         <v>1200</v>
@@ -2063,16 +2064,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42400</v>
+        <v>41000</v>
       </c>
       <c r="E48" s="3">
-        <v>41500</v>
+        <v>40100</v>
       </c>
       <c r="F48" s="3">
-        <v>40300</v>
+        <v>38900</v>
       </c>
       <c r="G48" s="3">
-        <v>35800</v>
+        <v>34600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2101,16 +2102,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>122100</v>
+        <v>118000</v>
       </c>
       <c r="E49" s="3">
-        <v>122100</v>
+        <v>118000</v>
       </c>
       <c r="F49" s="3">
-        <v>122300</v>
+        <v>118200</v>
       </c>
       <c r="G49" s="3">
-        <v>122000</v>
+        <v>117900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2215,16 +2216,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="E52" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="F52" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="G52" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2291,16 +2292,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>320600</v>
+        <v>309900</v>
       </c>
       <c r="E54" s="3">
-        <v>311700</v>
+        <v>301300</v>
       </c>
       <c r="F54" s="3">
-        <v>335600</v>
+        <v>324300</v>
       </c>
       <c r="G54" s="3">
-        <v>244700</v>
+        <v>236500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2361,16 +2362,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31900</v>
+        <v>30900</v>
       </c>
       <c r="E57" s="3">
-        <v>30900</v>
+        <v>29900</v>
       </c>
       <c r="F57" s="3">
-        <v>29900</v>
+        <v>28900</v>
       </c>
       <c r="G57" s="3">
-        <v>29600</v>
+        <v>28600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2399,16 +2400,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32600</v>
+        <v>31500</v>
       </c>
       <c r="E58" s="3">
-        <v>32300</v>
+        <v>31300</v>
       </c>
       <c r="F58" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G58" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2437,16 +2438,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="E59" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="F59" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="G59" s="3">
-        <v>13800</v>
+        <v>13300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2475,16 +2476,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>74900</v>
+        <v>72400</v>
       </c>
       <c r="E60" s="3">
-        <v>70700</v>
+        <v>68300</v>
       </c>
       <c r="F60" s="3">
-        <v>46300</v>
+        <v>44700</v>
       </c>
       <c r="G60" s="3">
-        <v>47500</v>
+        <v>45900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2513,16 +2514,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>48600</v>
+        <v>47000</v>
       </c>
       <c r="E61" s="3">
-        <v>49100</v>
+        <v>47500</v>
       </c>
       <c r="F61" s="3">
-        <v>98000</v>
+        <v>94700</v>
       </c>
       <c r="G61" s="3">
-        <v>94300</v>
+        <v>91200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2551,16 +2552,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12300</v>
+        <v>11800</v>
       </c>
       <c r="E62" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="F62" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="G62" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2703,16 +2704,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>135700</v>
+        <v>131200</v>
       </c>
       <c r="E66" s="3">
-        <v>131100</v>
+        <v>126700</v>
       </c>
       <c r="F66" s="3">
-        <v>154700</v>
+        <v>149500</v>
       </c>
       <c r="G66" s="3">
-        <v>151600</v>
+        <v>146600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2909,16 +2910,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>184900</v>
+        <v>178700</v>
       </c>
       <c r="E72" s="3">
-        <v>180600</v>
+        <v>174600</v>
       </c>
       <c r="F72" s="3">
-        <v>180900</v>
+        <v>174900</v>
       </c>
       <c r="G72" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3061,16 +3062,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>184900</v>
+        <v>178700</v>
       </c>
       <c r="E76" s="3">
-        <v>180600</v>
+        <v>174600</v>
       </c>
       <c r="F76" s="3">
-        <v>180900</v>
+        <v>174900</v>
       </c>
       <c r="G76" s="3">
-        <v>93000</v>
+        <v>89900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -3154,13 +3155,13 @@
         <v>44012</v>
       </c>
       <c r="H80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -3180,25 +3181,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E81" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="F81" s="3">
         <v>300</v>
       </c>
       <c r="G81" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="H81" s="3">
-        <v>-12200</v>
+        <v>2500</v>
       </c>
       <c r="I81" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-11800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-4500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3234,25 +3235,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E83" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="F83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G83" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="H83" s="3">
-        <v>11500</v>
+        <v>2500</v>
       </c>
       <c r="I83" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>11100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>5400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3462,25 +3463,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="E89" s="3">
-        <v>14000</v>
+        <v>13600</v>
       </c>
       <c r="F89" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="G89" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="H89" s="3">
-        <v>10400</v>
+        <v>3300</v>
       </c>
       <c r="I89" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>6500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3519,22 +3520,22 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="H91" s="3">
-        <v>-5300</v>
+        <v>-1900</v>
       </c>
       <c r="I91" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-5100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2900</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3630,25 +3631,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="E94" s="3">
-        <v>-112700</v>
+        <v>-108900</v>
       </c>
       <c r="F94" s="3">
-        <v>-91500</v>
+        <v>-88400</v>
       </c>
       <c r="G94" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="H94" s="3">
-        <v>-9100</v>
+        <v>-3000</v>
       </c>
       <c r="I94" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-8800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3836,25 +3837,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>110300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>84400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>26200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>114100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>87300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>27100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3912,25 +3913,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E102" s="3">
-        <v>15400</v>
+        <v>14900</v>
       </c>
       <c r="F102" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G102" s="3">
-        <v>28600</v>
+        <v>27600</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>VTRU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,205 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>26900</v>
+        <v>29200</v>
       </c>
       <c r="E8" s="3">
-        <v>92700</v>
+        <v>32800</v>
       </c>
       <c r="F8" s="3">
-        <v>22500</v>
+        <v>29700</v>
       </c>
       <c r="G8" s="3">
-        <v>45800</v>
+        <v>102300</v>
       </c>
       <c r="H8" s="3">
-        <v>23000</v>
+        <v>24800</v>
       </c>
       <c r="I8" s="3">
+        <v>50600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K8" s="3">
         <v>82300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>41900</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9500</v>
+        <v>13400</v>
       </c>
       <c r="E9" s="3">
-        <v>39500</v>
+        <v>11700</v>
       </c>
       <c r="F9" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="G9" s="3">
-        <v>18900</v>
+        <v>43600</v>
       </c>
       <c r="H9" s="3">
-        <v>10200</v>
+        <v>11600</v>
       </c>
       <c r="I9" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K9" s="3">
         <v>37800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>18800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>17500</v>
+        <v>15800</v>
       </c>
       <c r="E10" s="3">
-        <v>53200</v>
+        <v>21100</v>
       </c>
       <c r="F10" s="3">
-        <v>12000</v>
+        <v>19300</v>
       </c>
       <c r="G10" s="3">
-        <v>26900</v>
+        <v>58700</v>
       </c>
       <c r="H10" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="I10" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K10" s="3">
         <v>44600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>23100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +878,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +918,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,69 +962,81 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10400</v>
+      </c>
+      <c r="L14" s="3">
         <v>4500</v>
       </c>
-      <c r="E14" s="3">
-        <v>13700</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J14" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1004,8 +1050,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1069,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24600</v>
+        <v>27500</v>
       </c>
       <c r="E17" s="3">
-        <v>81800</v>
+        <v>26100</v>
       </c>
       <c r="F17" s="3">
-        <v>20400</v>
+        <v>27200</v>
       </c>
       <c r="G17" s="3">
-        <v>38100</v>
+        <v>90300</v>
       </c>
       <c r="H17" s="3">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="I17" s="3">
+        <v>42100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K17" s="3">
         <v>88700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>42800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="E18" s="3">
-        <v>10900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1500</v>
-      </c>
       <c r="I18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,198 +1175,230 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="E20" s="3">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="3">
-        <v>3100</v>
+        <v>1600</v>
       </c>
       <c r="G20" s="3">
-        <v>1200</v>
+        <v>5600</v>
       </c>
       <c r="H20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6200</v>
+        <v>7000</v>
       </c>
       <c r="E21" s="3">
-        <v>25100</v>
+        <v>10300</v>
       </c>
       <c r="F21" s="3">
-        <v>7600</v>
+        <v>6800</v>
       </c>
       <c r="G21" s="3">
-        <v>13200</v>
+        <v>27800</v>
       </c>
       <c r="H21" s="3">
-        <v>4400</v>
+        <v>8400</v>
       </c>
       <c r="I21" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K21" s="3">
         <v>7500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="E22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>10100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="E23" s="3">
-        <v>5900</v>
+        <v>4900</v>
       </c>
       <c r="F23" s="3">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="G23" s="3">
-        <v>5700</v>
+        <v>6500</v>
       </c>
       <c r="H23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-13800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2400</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>-3400</v>
+        <v>1800</v>
       </c>
       <c r="F24" s="3">
-        <v>2400</v>
+        <v>-2600</v>
       </c>
       <c r="G24" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="H24" s="3">
-        <v>-2500</v>
+        <v>2600</v>
       </c>
       <c r="I24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1435,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3900</v>
+        <v>600</v>
       </c>
       <c r="E26" s="3">
-        <v>9300</v>
+        <v>3100</v>
       </c>
       <c r="F26" s="3">
-        <v>300</v>
+        <v>4300</v>
       </c>
       <c r="G26" s="3">
-        <v>9400</v>
+        <v>10300</v>
       </c>
       <c r="H26" s="3">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="I26" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-11800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3900</v>
+        <v>600</v>
       </c>
       <c r="E27" s="3">
-        <v>9300</v>
+        <v>3100</v>
       </c>
       <c r="F27" s="3">
-        <v>300</v>
+        <v>4300</v>
       </c>
       <c r="G27" s="3">
-        <v>9400</v>
+        <v>10300</v>
       </c>
       <c r="H27" s="3">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="I27" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1567,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1611,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1655,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,84 +1699,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1400</v>
+        <v>-2500</v>
       </c>
       <c r="E32" s="3">
-        <v>-5100</v>
+        <v>-1200</v>
       </c>
       <c r="F32" s="3">
-        <v>-3100</v>
+        <v>-1600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1200</v>
+        <v>-5600</v>
       </c>
       <c r="H32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3900</v>
+        <v>600</v>
       </c>
       <c r="E33" s="3">
-        <v>9300</v>
+        <v>3100</v>
       </c>
       <c r="F33" s="3">
-        <v>300</v>
+        <v>4300</v>
       </c>
       <c r="G33" s="3">
-        <v>9400</v>
+        <v>10300</v>
       </c>
       <c r="H33" s="3">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="I33" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-11800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1831,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3900</v>
+        <v>600</v>
       </c>
       <c r="E35" s="3">
-        <v>9300</v>
+        <v>3100</v>
       </c>
       <c r="F35" s="3">
-        <v>300</v>
+        <v>4300</v>
       </c>
       <c r="G35" s="3">
-        <v>9400</v>
+        <v>10300</v>
       </c>
       <c r="H35" s="3">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="I35" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-11800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1946,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,28 +1964,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17000</v>
+        <v>29900</v>
       </c>
       <c r="E41" s="3">
-        <v>15300</v>
+        <v>28200</v>
       </c>
       <c r="F41" s="3">
-        <v>31600</v>
+        <v>18800</v>
       </c>
       <c r="G41" s="3">
-        <v>28100</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>16900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>34900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>31000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1830,28 +2004,34 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>92400</v>
+        <v>97000</v>
       </c>
       <c r="E42" s="3">
-        <v>92000</v>
+        <v>95800</v>
       </c>
       <c r="F42" s="3">
-        <v>101000</v>
+        <v>102000</v>
       </c>
       <c r="G42" s="3">
-        <v>14300</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>101500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>111500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>15800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1868,28 +2048,34 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22500</v>
+        <v>26800</v>
       </c>
       <c r="E43" s="3">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="F43" s="3">
-        <v>20100</v>
+        <v>24800</v>
       </c>
       <c r="G43" s="3">
-        <v>19700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>23100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>22200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>21700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1906,8 +2092,14 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,28 +2136,34 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2700</v>
+        <v>5300</v>
       </c>
       <c r="E45" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="F45" s="3">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="G45" s="3">
-        <v>8900</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>2600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>9800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1982,28 +2180,34 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>134600</v>
+        <v>159000</v>
       </c>
       <c r="E46" s="3">
-        <v>130600</v>
+        <v>153200</v>
       </c>
       <c r="F46" s="3">
-        <v>155000</v>
+        <v>148600</v>
       </c>
       <c r="G46" s="3">
-        <v>70900</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>144200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>171100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>78300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2224,14 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2032,16 +2242,16 @@
         <v>1200</v>
       </c>
       <c r="F47" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G47" s="3">
-        <v>600</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2058,28 +2268,34 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41000</v>
+        <v>47000</v>
       </c>
       <c r="E48" s="3">
-        <v>40100</v>
+        <v>46200</v>
       </c>
       <c r="F48" s="3">
-        <v>38900</v>
+        <v>45200</v>
       </c>
       <c r="G48" s="3">
-        <v>34600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>44300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>38200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2096,28 +2312,34 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>118000</v>
+        <v>131700</v>
       </c>
       <c r="E49" s="3">
-        <v>118000</v>
+        <v>131000</v>
       </c>
       <c r="F49" s="3">
-        <v>118200</v>
+        <v>130200</v>
       </c>
       <c r="G49" s="3">
-        <v>117900</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>130200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>130500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>130200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2134,8 +2356,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2400,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,28 +2444,34 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15200</v>
+        <v>16500</v>
       </c>
       <c r="E52" s="3">
-        <v>11400</v>
+        <v>16200</v>
       </c>
       <c r="F52" s="3">
-        <v>11000</v>
+        <v>16800</v>
       </c>
       <c r="G52" s="3">
-        <v>12400</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>12500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>13700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2248,8 +2488,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,28 +2532,34 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>309900</v>
+        <v>355400</v>
       </c>
       <c r="E54" s="3">
-        <v>301300</v>
+        <v>347800</v>
       </c>
       <c r="F54" s="3">
-        <v>324300</v>
+        <v>342100</v>
       </c>
       <c r="G54" s="3">
-        <v>236500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>332600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>358000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>261000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2324,8 +2576,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2598,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,28 +2616,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30900</v>
+        <v>35300</v>
       </c>
       <c r="E57" s="3">
-        <v>29900</v>
+        <v>35000</v>
       </c>
       <c r="F57" s="3">
-        <v>28900</v>
+        <v>34100</v>
       </c>
       <c r="G57" s="3">
-        <v>28600</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>33000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>31900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>31500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2394,29 +2656,35 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31500</v>
+        <v>35300</v>
       </c>
       <c r="E58" s="3">
-        <v>31300</v>
+        <v>35100</v>
       </c>
       <c r="F58" s="3">
+        <v>34800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>34500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I58" s="3">
         <v>4400</v>
       </c>
-      <c r="G58" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,28 +2700,34 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10000</v>
+        <v>13100</v>
       </c>
       <c r="E59" s="3">
-        <v>7200</v>
+        <v>10900</v>
       </c>
       <c r="F59" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="G59" s="3">
-        <v>13300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>7900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>12600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>14700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2470,28 +2744,34 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>72400</v>
+        <v>83800</v>
       </c>
       <c r="E60" s="3">
-        <v>68300</v>
+        <v>81000</v>
       </c>
       <c r="F60" s="3">
-        <v>44700</v>
+        <v>79900</v>
       </c>
       <c r="G60" s="3">
-        <v>45900</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>75400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>49400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>50600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2508,28 +2788,34 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>47000</v>
+        <v>54200</v>
       </c>
       <c r="E61" s="3">
-        <v>47500</v>
+        <v>53000</v>
       </c>
       <c r="F61" s="3">
-        <v>94700</v>
+        <v>51900</v>
       </c>
       <c r="G61" s="3">
-        <v>91200</v>
+        <v>52400</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>104600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2546,28 +2832,34 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11800</v>
+        <v>13700</v>
       </c>
       <c r="E62" s="3">
-        <v>11000</v>
+        <v>13100</v>
       </c>
       <c r="F62" s="3">
-        <v>10000</v>
+        <v>13100</v>
       </c>
       <c r="G62" s="3">
-        <v>9500</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>12100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>10500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2584,8 +2876,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2920,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2964,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,28 +3008,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>131200</v>
+        <v>151700</v>
       </c>
       <c r="E66" s="3">
-        <v>126700</v>
+        <v>147100</v>
       </c>
       <c r="F66" s="3">
-        <v>149500</v>
+        <v>144800</v>
       </c>
       <c r="G66" s="3">
-        <v>146600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>139900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>165000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>161800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2736,8 +3052,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +3074,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +3114,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +3158,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3202,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,28 +3246,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>178700</v>
+        <v>203700</v>
       </c>
       <c r="E72" s="3">
-        <v>174600</v>
+        <v>200700</v>
       </c>
       <c r="F72" s="3">
-        <v>174900</v>
+        <v>197300</v>
       </c>
       <c r="G72" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>192700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>193000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-8800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2942,8 +3290,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3334,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3378,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,28 +3422,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>178700</v>
+        <v>203700</v>
       </c>
       <c r="E76" s="3">
-        <v>174600</v>
+        <v>200700</v>
       </c>
       <c r="F76" s="3">
-        <v>174900</v>
+        <v>197300</v>
       </c>
       <c r="G76" s="3">
-        <v>89900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>192700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>193000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>99300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3466,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3510,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3900</v>
+        <v>600</v>
       </c>
       <c r="E81" s="3">
-        <v>9300</v>
+        <v>3100</v>
       </c>
       <c r="F81" s="3">
-        <v>300</v>
+        <v>4300</v>
       </c>
       <c r="G81" s="3">
-        <v>9400</v>
+        <v>10300</v>
       </c>
       <c r="H81" s="3">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="I81" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-11800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,46 +3625,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="E83" s="3">
-        <v>9200</v>
+        <v>2300</v>
       </c>
       <c r="F83" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="G83" s="3">
-        <v>4300</v>
+        <v>10100</v>
       </c>
       <c r="H83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K83" s="3">
         <v>11100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3709,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3753,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3797,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3841,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3885,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="E89" s="3">
-        <v>13600</v>
+        <v>5900</v>
       </c>
       <c r="F89" s="3">
-        <v>7600</v>
+        <v>6200</v>
       </c>
       <c r="G89" s="3">
-        <v>8900</v>
+        <v>15000</v>
       </c>
       <c r="H89" s="3">
-        <v>3300</v>
+        <v>8400</v>
       </c>
       <c r="I89" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K89" s="3">
         <v>10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>6500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3951,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-1600</v>
       </c>
       <c r="E91" s="3">
-        <v>-4600</v>
+        <v>-1300</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3500</v>
+        <v>-5000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1900</v>
+        <v>-500</v>
       </c>
       <c r="I91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +4035,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +4079,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3500</v>
+        <v>-3000</v>
       </c>
       <c r="E94" s="3">
-        <v>-108900</v>
+        <v>4100</v>
       </c>
       <c r="F94" s="3">
-        <v>-88400</v>
+        <v>-3800</v>
       </c>
       <c r="G94" s="3">
-        <v>-7500</v>
+        <v>-120300</v>
       </c>
       <c r="H94" s="3">
-        <v>-3000</v>
+        <v>-97600</v>
       </c>
       <c r="I94" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +4145,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +4185,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +4229,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4273,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,46 +4317,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-400</v>
+        <v>-1200</v>
       </c>
       <c r="E100" s="3">
-        <v>110300</v>
+        <v>-500</v>
       </c>
       <c r="F100" s="3">
-        <v>84400</v>
+        <v>-500</v>
       </c>
       <c r="G100" s="3">
-        <v>26200</v>
+        <v>121800</v>
       </c>
       <c r="H100" s="3">
+        <v>93200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>29000</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,8 +4405,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3916,33 +4420,39 @@
         <v>1700</v>
       </c>
       <c r="E102" s="3">
-        <v>14900</v>
+        <v>9400</v>
       </c>
       <c r="F102" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="G102" s="3">
-        <v>27600</v>
+        <v>16400</v>
       </c>
       <c r="H102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>30500</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>VTRU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,62 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,41 +730,44 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>29200</v>
+        <v>32300</v>
       </c>
       <c r="E8" s="3">
-        <v>32800</v>
+        <v>28800</v>
       </c>
       <c r="F8" s="3">
-        <v>29700</v>
+        <v>32400</v>
       </c>
       <c r="G8" s="3">
-        <v>102300</v>
+        <v>29400</v>
       </c>
       <c r="H8" s="3">
-        <v>24800</v>
+        <v>101100</v>
       </c>
       <c r="I8" s="3">
-        <v>50600</v>
+        <v>24600</v>
       </c>
       <c r="J8" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K8" s="3">
         <v>25300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>82300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41900</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -774,41 +777,44 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>13400</v>
+        <v>11800</v>
       </c>
       <c r="E9" s="3">
-        <v>11700</v>
+        <v>13200</v>
       </c>
       <c r="F9" s="3">
-        <v>10400</v>
+        <v>11600</v>
       </c>
       <c r="G9" s="3">
-        <v>43600</v>
+        <v>10300</v>
       </c>
       <c r="H9" s="3">
-        <v>11600</v>
+        <v>43100</v>
       </c>
       <c r="I9" s="3">
-        <v>20900</v>
+        <v>11500</v>
       </c>
       <c r="J9" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K9" s="3">
         <v>11300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,41 +824,44 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>15800</v>
+        <v>20500</v>
       </c>
       <c r="E10" s="3">
-        <v>21100</v>
+        <v>15600</v>
       </c>
       <c r="F10" s="3">
-        <v>19300</v>
+        <v>20800</v>
       </c>
       <c r="G10" s="3">
-        <v>58700</v>
+        <v>19000</v>
       </c>
       <c r="H10" s="3">
-        <v>13300</v>
+        <v>58000</v>
       </c>
       <c r="I10" s="3">
-        <v>29700</v>
+        <v>13100</v>
       </c>
       <c r="J10" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K10" s="3">
         <v>14100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +892,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,41 +984,44 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4700</v>
+        <v>6600</v>
       </c>
       <c r="E14" s="3">
-        <v>5500</v>
+        <v>4600</v>
       </c>
       <c r="F14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G14" s="3">
         <v>4900</v>
       </c>
-      <c r="G14" s="3">
-        <v>15100</v>
-      </c>
       <c r="H14" s="3">
-        <v>4200</v>
+        <v>15000</v>
       </c>
       <c r="I14" s="3">
-        <v>6900</v>
+        <v>4100</v>
       </c>
       <c r="J14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K14" s="3">
         <v>3300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1012,8 +1031,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1023,8 +1045,8 @@
       <c r="E15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="3">
+        <v>500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -1038,8 +1060,8 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1056,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,41 +1096,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="E17" s="3">
-        <v>26100</v>
+        <v>27200</v>
       </c>
       <c r="F17" s="3">
-        <v>27200</v>
+        <v>25800</v>
       </c>
       <c r="G17" s="3">
-        <v>90300</v>
+        <v>26900</v>
       </c>
       <c r="H17" s="3">
-        <v>22500</v>
+        <v>89300</v>
       </c>
       <c r="I17" s="3">
-        <v>42100</v>
+        <v>22300</v>
       </c>
       <c r="J17" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K17" s="3">
         <v>23700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>88700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1115,41 +1141,44 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1700</v>
       </c>
-      <c r="E18" s="3">
-        <v>6700</v>
-      </c>
       <c r="F18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G18" s="3">
         <v>2500</v>
       </c>
-      <c r="G18" s="3">
-        <v>12000</v>
-      </c>
       <c r="H18" s="3">
+        <v>11900</v>
+      </c>
+      <c r="I18" s="3">
         <v>2300</v>
       </c>
-      <c r="I18" s="3">
-        <v>8500</v>
-      </c>
       <c r="J18" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,41 +1209,42 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
-        <v>5600</v>
-      </c>
       <c r="H20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I20" s="3">
         <v>3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,41 +1254,44 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7000</v>
+        <v>9100</v>
       </c>
       <c r="E21" s="3">
-        <v>10300</v>
+        <v>6900</v>
       </c>
       <c r="F21" s="3">
-        <v>6800</v>
+        <v>10200</v>
       </c>
       <c r="G21" s="3">
-        <v>27800</v>
+        <v>6700</v>
       </c>
       <c r="H21" s="3">
-        <v>8400</v>
+        <v>27400</v>
       </c>
       <c r="I21" s="3">
-        <v>14500</v>
+        <v>8300</v>
       </c>
       <c r="J21" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K21" s="3">
         <v>4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,41 +1301,44 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>3400</v>
       </c>
-      <c r="E22" s="3">
-        <v>3100</v>
-      </c>
       <c r="F22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
-        <v>11100</v>
-      </c>
       <c r="H22" s="3">
-        <v>2800</v>
+        <v>11000</v>
       </c>
       <c r="I22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J22" s="3">
         <v>3500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1309,41 +1348,44 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
-        <v>4900</v>
-      </c>
       <c r="F23" s="3">
-        <v>1700</v>
+        <v>4800</v>
       </c>
       <c r="G23" s="3">
-        <v>6500</v>
+        <v>1600</v>
       </c>
       <c r="H23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I23" s="3">
         <v>3000</v>
       </c>
-      <c r="I23" s="3">
-        <v>6300</v>
-      </c>
       <c r="J23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,41 +1395,44 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2600</v>
       </c>
-      <c r="G24" s="3">
-        <v>-3800</v>
-      </c>
       <c r="H24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
-        <v>-4100</v>
-      </c>
       <c r="J24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1442,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,41 +1489,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
-        <v>3100</v>
-      </c>
       <c r="F26" s="3">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="G26" s="3">
-        <v>10300</v>
+        <v>4200</v>
       </c>
       <c r="H26" s="3">
-        <v>400</v>
+        <v>10200</v>
       </c>
       <c r="I26" s="3">
-        <v>10300</v>
+        <v>300</v>
       </c>
       <c r="J26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K26" s="3">
         <v>2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,41 +1536,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
-        <v>3100</v>
-      </c>
       <c r="F27" s="3">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="G27" s="3">
-        <v>10300</v>
+        <v>4200</v>
       </c>
       <c r="H27" s="3">
-        <v>400</v>
+        <v>10200</v>
       </c>
       <c r="I27" s="3">
-        <v>10300</v>
+        <v>300</v>
       </c>
       <c r="J27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,41 +1771,44 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-5600</v>
-      </c>
       <c r="H32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1749,41 +1818,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
-        <v>3100</v>
-      </c>
       <c r="F33" s="3">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="G33" s="3">
-        <v>10300</v>
+        <v>4200</v>
       </c>
       <c r="H33" s="3">
-        <v>400</v>
+        <v>10200</v>
       </c>
       <c r="I33" s="3">
-        <v>10300</v>
+        <v>300</v>
       </c>
       <c r="J33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,41 +1912,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
-        <v>3100</v>
-      </c>
       <c r="F35" s="3">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="G35" s="3">
-        <v>10300</v>
+        <v>4200</v>
       </c>
       <c r="H35" s="3">
-        <v>400</v>
+        <v>10200</v>
       </c>
       <c r="I35" s="3">
-        <v>10300</v>
+        <v>300</v>
       </c>
       <c r="J35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,46 +1959,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1930,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,31 +2051,32 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29900</v>
+        <v>14700</v>
       </c>
       <c r="E41" s="3">
-        <v>28200</v>
+        <v>29600</v>
       </c>
       <c r="F41" s="3">
-        <v>18800</v>
+        <v>27900</v>
       </c>
       <c r="G41" s="3">
-        <v>16900</v>
+        <v>18600</v>
       </c>
       <c r="H41" s="3">
-        <v>34900</v>
+        <v>16700</v>
       </c>
       <c r="I41" s="3">
-        <v>31000</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>34500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>30600</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -2010,31 +2096,34 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>97000</v>
+        <v>49300</v>
       </c>
       <c r="E42" s="3">
         <v>95800</v>
       </c>
       <c r="F42" s="3">
-        <v>102000</v>
+        <v>94700</v>
       </c>
       <c r="G42" s="3">
-        <v>101500</v>
+        <v>100800</v>
       </c>
       <c r="H42" s="3">
-        <v>111500</v>
+        <v>100400</v>
       </c>
       <c r="I42" s="3">
-        <v>15800</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>110200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>15600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -2054,31 +2143,34 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26800</v>
+        <v>28900</v>
       </c>
       <c r="E43" s="3">
-        <v>27000</v>
+        <v>26500</v>
       </c>
       <c r="F43" s="3">
-        <v>24800</v>
+        <v>26700</v>
       </c>
       <c r="G43" s="3">
-        <v>23100</v>
+        <v>24500</v>
       </c>
       <c r="H43" s="3">
-        <v>22200</v>
+        <v>22900</v>
       </c>
       <c r="I43" s="3">
-        <v>21700</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>22000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>21500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2190,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,31 +2237,34 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5300</v>
+        <v>7400</v>
       </c>
       <c r="E45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
-        <v>3000</v>
-      </c>
       <c r="G45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>9700</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2186,31 +2284,34 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>159000</v>
+        <v>100300</v>
       </c>
       <c r="E46" s="3">
-        <v>153200</v>
+        <v>157200</v>
       </c>
       <c r="F46" s="3">
-        <v>148600</v>
+        <v>151500</v>
       </c>
       <c r="G46" s="3">
-        <v>144200</v>
+        <v>146800</v>
       </c>
       <c r="H46" s="3">
-        <v>171100</v>
+        <v>142500</v>
       </c>
       <c r="I46" s="3">
-        <v>78300</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>169100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>77400</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2230,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2242,19 +2346,19 @@
         <v>1200</v>
       </c>
       <c r="F47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G47" s="3">
         <v>1300</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1400</v>
       </c>
       <c r="H47" s="3">
         <v>1300</v>
       </c>
       <c r="I47" s="3">
-        <v>700</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2274,31 +2378,34 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47000</v>
+        <v>47300</v>
       </c>
       <c r="E48" s="3">
-        <v>46200</v>
+        <v>46500</v>
       </c>
       <c r="F48" s="3">
-        <v>45200</v>
+        <v>45600</v>
       </c>
       <c r="G48" s="3">
-        <v>44300</v>
+        <v>44700</v>
       </c>
       <c r="H48" s="3">
-        <v>43000</v>
+        <v>43700</v>
       </c>
       <c r="I48" s="3">
-        <v>38200</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>42500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>37800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2318,31 +2425,34 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>131700</v>
+        <v>130500</v>
       </c>
       <c r="E49" s="3">
-        <v>131000</v>
+        <v>130200</v>
       </c>
       <c r="F49" s="3">
-        <v>130200</v>
+        <v>129500</v>
       </c>
       <c r="G49" s="3">
-        <v>130200</v>
+        <v>128700</v>
       </c>
       <c r="H49" s="3">
-        <v>130500</v>
+        <v>128700</v>
       </c>
       <c r="I49" s="3">
-        <v>130200</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>129000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>128600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2362,8 +2472,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,31 +2566,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16500</v>
+        <v>18200</v>
       </c>
       <c r="E52" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="F52" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="G52" s="3">
-        <v>12500</v>
+        <v>16600</v>
       </c>
       <c r="H52" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="I52" s="3">
-        <v>13700</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>12000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>13600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2494,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,31 +2660,34 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>355400</v>
+        <v>297500</v>
       </c>
       <c r="E54" s="3">
-        <v>347800</v>
+        <v>351300</v>
       </c>
       <c r="F54" s="3">
-        <v>342100</v>
+        <v>343800</v>
       </c>
       <c r="G54" s="3">
-        <v>332600</v>
+        <v>338100</v>
       </c>
       <c r="H54" s="3">
-        <v>358000</v>
+        <v>328800</v>
       </c>
       <c r="I54" s="3">
-        <v>261000</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>353900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>258000</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2582,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,31 +2747,32 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35300</v>
+        <v>37300</v>
       </c>
       <c r="E57" s="3">
-        <v>35000</v>
+        <v>34900</v>
       </c>
       <c r="F57" s="3">
-        <v>34100</v>
+        <v>34600</v>
       </c>
       <c r="G57" s="3">
-        <v>33000</v>
+        <v>33700</v>
       </c>
       <c r="H57" s="3">
-        <v>31900</v>
+        <v>32600</v>
       </c>
       <c r="I57" s="3">
         <v>31500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>31200</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2662,31 +2792,34 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35300</v>
+        <v>5300</v>
       </c>
       <c r="E58" s="3">
-        <v>35100</v>
+        <v>34900</v>
       </c>
       <c r="F58" s="3">
-        <v>34800</v>
+        <v>34700</v>
       </c>
       <c r="G58" s="3">
-        <v>34500</v>
+        <v>34400</v>
       </c>
       <c r="H58" s="3">
-        <v>4900</v>
+        <v>34100</v>
       </c>
       <c r="I58" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>4800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2706,31 +2839,34 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13100</v>
+        <v>7900</v>
       </c>
       <c r="E59" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G59" s="3">
         <v>10900</v>
       </c>
-      <c r="F59" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>7900</v>
-      </c>
       <c r="H59" s="3">
-        <v>12600</v>
+        <v>7800</v>
       </c>
       <c r="I59" s="3">
-        <v>14700</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>12400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>14500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2750,31 +2886,34 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>83800</v>
+        <v>50500</v>
       </c>
       <c r="E60" s="3">
-        <v>81000</v>
+        <v>82900</v>
       </c>
       <c r="F60" s="3">
-        <v>79900</v>
+        <v>80100</v>
       </c>
       <c r="G60" s="3">
-        <v>75400</v>
+        <v>79000</v>
       </c>
       <c r="H60" s="3">
-        <v>49400</v>
+        <v>74500</v>
       </c>
       <c r="I60" s="3">
-        <v>50600</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>48800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>50100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2794,31 +2933,34 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54200</v>
+        <v>26200</v>
       </c>
       <c r="E61" s="3">
-        <v>53000</v>
+        <v>53600</v>
       </c>
       <c r="F61" s="3">
-        <v>51900</v>
+        <v>52400</v>
       </c>
       <c r="G61" s="3">
-        <v>52400</v>
+        <v>51300</v>
       </c>
       <c r="H61" s="3">
-        <v>104600</v>
+        <v>51800</v>
       </c>
       <c r="I61" s="3">
-        <v>100700</v>
+        <v>103400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>99500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2838,31 +2980,34 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13700</v>
+        <v>13200</v>
       </c>
       <c r="E62" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="F62" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="G62" s="3">
-        <v>12100</v>
+        <v>12900</v>
       </c>
       <c r="H62" s="3">
-        <v>11100</v>
+        <v>12000</v>
       </c>
       <c r="I62" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>10900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>10400</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2882,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,31 +3168,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>151700</v>
+        <v>89900</v>
       </c>
       <c r="E66" s="3">
-        <v>147100</v>
+        <v>150000</v>
       </c>
       <c r="F66" s="3">
-        <v>144800</v>
+        <v>145400</v>
       </c>
       <c r="G66" s="3">
-        <v>139900</v>
+        <v>143100</v>
       </c>
       <c r="H66" s="3">
-        <v>165000</v>
+        <v>138300</v>
       </c>
       <c r="I66" s="3">
-        <v>161800</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>163100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>159900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3058,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,31 +3422,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>203700</v>
+        <v>207700</v>
       </c>
       <c r="E72" s="3">
-        <v>200700</v>
+        <v>201300</v>
       </c>
       <c r="F72" s="3">
-        <v>197300</v>
+        <v>198300</v>
       </c>
       <c r="G72" s="3">
-        <v>192700</v>
+        <v>195000</v>
       </c>
       <c r="H72" s="3">
-        <v>193000</v>
+        <v>190500</v>
       </c>
       <c r="I72" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>190800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-8700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3296,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,31 +3610,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>203700</v>
+        <v>207700</v>
       </c>
       <c r="E76" s="3">
-        <v>200700</v>
+        <v>201300</v>
       </c>
       <c r="F76" s="3">
-        <v>197300</v>
+        <v>198300</v>
       </c>
       <c r="G76" s="3">
-        <v>192700</v>
+        <v>195000</v>
       </c>
       <c r="H76" s="3">
-        <v>193000</v>
+        <v>190500</v>
       </c>
       <c r="I76" s="3">
-        <v>99300</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>190800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>98100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3472,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,46 +3704,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3565,41 +3756,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
-        <v>3100</v>
-      </c>
       <c r="F81" s="3">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="G81" s="3">
-        <v>10300</v>
+        <v>4200</v>
       </c>
       <c r="H81" s="3">
-        <v>400</v>
+        <v>10200</v>
       </c>
       <c r="I81" s="3">
-        <v>10300</v>
+        <v>300</v>
       </c>
       <c r="J81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3609,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,41 +3824,42 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
         <v>2800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2700</v>
       </c>
-      <c r="G83" s="3">
-        <v>10100</v>
-      </c>
       <c r="H83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I83" s="3">
         <v>2600</v>
       </c>
-      <c r="I83" s="3">
-        <v>4800</v>
-      </c>
       <c r="J83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3671,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,41 +4104,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5900</v>
+        <v>-5100</v>
       </c>
       <c r="E89" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="F89" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="G89" s="3">
-        <v>15000</v>
+        <v>6100</v>
       </c>
       <c r="H89" s="3">
-        <v>8400</v>
+        <v>14800</v>
       </c>
       <c r="I89" s="3">
-        <v>9800</v>
+        <v>8300</v>
       </c>
       <c r="J89" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K89" s="3">
         <v>3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,41 +4172,42 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3900</v>
-      </c>
       <c r="J91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,41 +4311,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
-        <v>4100</v>
-      </c>
       <c r="F94" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-3800</v>
       </c>
-      <c r="G94" s="3">
-        <v>-120300</v>
-      </c>
       <c r="H94" s="3">
-        <v>-97600</v>
+        <v>-118900</v>
       </c>
       <c r="I94" s="3">
-        <v>-8300</v>
+        <v>-96500</v>
       </c>
       <c r="J94" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4129,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,41 +4565,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-500</v>
       </c>
       <c r="F100" s="3">
         <v>-500</v>
       </c>
       <c r="G100" s="3">
-        <v>121800</v>
+        <v>-500</v>
       </c>
       <c r="H100" s="3">
-        <v>93200</v>
+        <v>120300</v>
       </c>
       <c r="I100" s="3">
-        <v>29000</v>
+        <v>92100</v>
       </c>
       <c r="J100" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4367,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,41 +4659,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
-        <v>9400</v>
-      </c>
       <c r="F102" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
-        <v>16400</v>
-      </c>
       <c r="H102" s="3">
-        <v>3900</v>
+        <v>16300</v>
       </c>
       <c r="I102" s="3">
-        <v>30500</v>
+        <v>3800</v>
       </c>
       <c r="J102" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4453,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
@@ -739,25 +739,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>32300</v>
+        <v>32500</v>
       </c>
       <c r="E8" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="F8" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="G8" s="3">
-        <v>29400</v>
+        <v>29500</v>
       </c>
       <c r="H8" s="3">
-        <v>101100</v>
+        <v>101600</v>
       </c>
       <c r="I8" s="3">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="J8" s="3">
-        <v>50000</v>
+        <v>50200</v>
       </c>
       <c r="K8" s="3">
         <v>25300</v>
@@ -786,25 +786,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="E9" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="F9" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="G9" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="H9" s="3">
-        <v>43100</v>
+        <v>43300</v>
       </c>
       <c r="I9" s="3">
         <v>11500</v>
       </c>
       <c r="J9" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="K9" s="3">
         <v>11300</v>
@@ -833,25 +833,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="E10" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="F10" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="G10" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="H10" s="3">
-        <v>58000</v>
+        <v>58300</v>
       </c>
       <c r="I10" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="J10" s="3">
-        <v>29300</v>
+        <v>29500</v>
       </c>
       <c r="K10" s="3">
         <v>14100</v>
@@ -993,13 +993,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E14" s="3">
         <v>4600</v>
       </c>
       <c r="F14" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G14" s="3">
         <v>4900</v>
@@ -1008,7 +1008,7 @@
         <v>15000</v>
       </c>
       <c r="I14" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J14" s="3">
         <v>6800</v>
@@ -1103,25 +1103,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27700</v>
+        <v>27900</v>
       </c>
       <c r="E17" s="3">
-        <v>27200</v>
+        <v>27300</v>
       </c>
       <c r="F17" s="3">
-        <v>25800</v>
+        <v>25900</v>
       </c>
       <c r="G17" s="3">
-        <v>26900</v>
+        <v>27000</v>
       </c>
       <c r="H17" s="3">
-        <v>89300</v>
+        <v>89700</v>
       </c>
       <c r="I17" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="J17" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="K17" s="3">
         <v>23700</v>
@@ -1156,7 +1156,7 @@
         <v>1700</v>
       </c>
       <c r="F18" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G18" s="3">
         <v>2500</v>
@@ -1228,7 +1228,7 @@
         <v>1600</v>
       </c>
       <c r="H20" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I20" s="3">
         <v>3400</v>
@@ -1266,16 +1266,16 @@
         <v>9100</v>
       </c>
       <c r="E21" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="F21" s="3">
         <v>10200</v>
       </c>
       <c r="G21" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H21" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="I21" s="3">
         <v>8300</v>
@@ -1310,7 +1310,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E22" s="3">
         <v>3400</v>
@@ -1325,7 +1325,7 @@
         <v>11000</v>
       </c>
       <c r="I22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J22" s="3">
         <v>3500</v>
@@ -1363,13 +1363,13 @@
         <v>800</v>
       </c>
       <c r="F23" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G23" s="3">
         <v>1600</v>
       </c>
       <c r="H23" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I23" s="3">
         <v>3000</v>
@@ -1516,7 +1516,7 @@
         <v>300</v>
       </c>
       <c r="J26" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="K26" s="3">
         <v>2700</v>
@@ -1563,7 +1563,7 @@
         <v>300</v>
       </c>
       <c r="J27" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="K27" s="3">
         <v>2700</v>
@@ -1792,7 +1792,7 @@
         <v>-1600</v>
       </c>
       <c r="H32" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="I32" s="3">
         <v>-3400</v>
@@ -1845,7 +1845,7 @@
         <v>300</v>
       </c>
       <c r="J33" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="K33" s="3">
         <v>2700</v>
@@ -1939,7 +1939,7 @@
         <v>300</v>
       </c>
       <c r="J35" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="K35" s="3">
         <v>2700</v>
@@ -2058,25 +2058,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="E41" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="F41" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="G41" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="H41" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="I41" s="3">
-        <v>34500</v>
+        <v>34600</v>
       </c>
       <c r="J41" s="3">
-        <v>30600</v>
+        <v>30800</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -2105,25 +2105,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>49300</v>
+        <v>49500</v>
       </c>
       <c r="E42" s="3">
-        <v>95800</v>
+        <v>96300</v>
       </c>
       <c r="F42" s="3">
-        <v>94700</v>
+        <v>95100</v>
       </c>
       <c r="G42" s="3">
+        <v>101300</v>
+      </c>
+      <c r="H42" s="3">
         <v>100800</v>
       </c>
-      <c r="H42" s="3">
-        <v>100400</v>
-      </c>
       <c r="I42" s="3">
-        <v>110200</v>
+        <v>110700</v>
       </c>
       <c r="J42" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -2152,25 +2152,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="E43" s="3">
-        <v>26500</v>
+        <v>26600</v>
       </c>
       <c r="F43" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="G43" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="H43" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="I43" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="J43" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2249,13 +2249,13 @@
         <v>7400</v>
       </c>
       <c r="E45" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F45" s="3">
         <v>2200</v>
       </c>
       <c r="G45" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H45" s="3">
         <v>2600</v>
@@ -2293,25 +2293,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100300</v>
+        <v>100700</v>
       </c>
       <c r="E46" s="3">
-        <v>157200</v>
+        <v>157900</v>
       </c>
       <c r="F46" s="3">
-        <v>151500</v>
+        <v>152200</v>
       </c>
       <c r="G46" s="3">
-        <v>146800</v>
+        <v>147500</v>
       </c>
       <c r="H46" s="3">
-        <v>142500</v>
+        <v>143200</v>
       </c>
       <c r="I46" s="3">
-        <v>169100</v>
+        <v>169900</v>
       </c>
       <c r="J46" s="3">
-        <v>77400</v>
+        <v>77700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2352,13 +2352,13 @@
         <v>1300</v>
       </c>
       <c r="H47" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I47" s="3">
         <v>1300</v>
       </c>
       <c r="J47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2387,25 +2387,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47300</v>
+        <v>47500</v>
       </c>
       <c r="E48" s="3">
-        <v>46500</v>
+        <v>46700</v>
       </c>
       <c r="F48" s="3">
-        <v>45600</v>
+        <v>45800</v>
       </c>
       <c r="G48" s="3">
-        <v>44700</v>
+        <v>44900</v>
       </c>
       <c r="H48" s="3">
-        <v>43700</v>
+        <v>44000</v>
       </c>
       <c r="I48" s="3">
-        <v>42500</v>
+        <v>42700</v>
       </c>
       <c r="J48" s="3">
-        <v>37800</v>
+        <v>38000</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2434,25 +2434,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>130500</v>
+        <v>131100</v>
       </c>
       <c r="E49" s="3">
-        <v>130200</v>
+        <v>130800</v>
       </c>
       <c r="F49" s="3">
-        <v>129500</v>
+        <v>130100</v>
       </c>
       <c r="G49" s="3">
-        <v>128700</v>
+        <v>129300</v>
       </c>
       <c r="H49" s="3">
-        <v>128700</v>
+        <v>129300</v>
       </c>
       <c r="I49" s="3">
-        <v>129000</v>
+        <v>129600</v>
       </c>
       <c r="J49" s="3">
-        <v>128600</v>
+        <v>129300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2575,22 +2575,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="E52" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="F52" s="3">
         <v>16000</v>
       </c>
       <c r="G52" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="H52" s="3">
         <v>12400</v>
       </c>
       <c r="I52" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="J52" s="3">
         <v>13600</v>
@@ -2669,25 +2669,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>297500</v>
+        <v>298900</v>
       </c>
       <c r="E54" s="3">
-        <v>351300</v>
+        <v>352900</v>
       </c>
       <c r="F54" s="3">
-        <v>343800</v>
+        <v>345400</v>
       </c>
       <c r="G54" s="3">
-        <v>338100</v>
+        <v>339700</v>
       </c>
       <c r="H54" s="3">
-        <v>328800</v>
+        <v>330300</v>
       </c>
       <c r="I54" s="3">
-        <v>353900</v>
+        <v>355500</v>
       </c>
       <c r="J54" s="3">
-        <v>258000</v>
+        <v>259200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2754,25 +2754,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37300</v>
+        <v>37500</v>
       </c>
       <c r="E57" s="3">
-        <v>34900</v>
+        <v>35100</v>
       </c>
       <c r="F57" s="3">
-        <v>34600</v>
+        <v>34800</v>
       </c>
       <c r="G57" s="3">
-        <v>33700</v>
+        <v>33800</v>
       </c>
       <c r="H57" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="I57" s="3">
-        <v>31500</v>
+        <v>31700</v>
       </c>
       <c r="J57" s="3">
-        <v>31200</v>
+        <v>31300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2804,22 +2804,22 @@
         <v>5300</v>
       </c>
       <c r="E58" s="3">
-        <v>34900</v>
+        <v>35100</v>
       </c>
       <c r="F58" s="3">
-        <v>34700</v>
+        <v>34800</v>
       </c>
       <c r="G58" s="3">
-        <v>34400</v>
+        <v>34600</v>
       </c>
       <c r="H58" s="3">
-        <v>34100</v>
+        <v>34300</v>
       </c>
       <c r="I58" s="3">
         <v>4800</v>
       </c>
       <c r="J58" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2848,7 +2848,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="E59" s="3">
         <v>13000</v>
@@ -2860,13 +2860,13 @@
         <v>10900</v>
       </c>
       <c r="H59" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="I59" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="J59" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2895,25 +2895,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>50500</v>
+        <v>50800</v>
       </c>
       <c r="E60" s="3">
-        <v>82900</v>
+        <v>83200</v>
       </c>
       <c r="F60" s="3">
-        <v>80100</v>
+        <v>80400</v>
       </c>
       <c r="G60" s="3">
-        <v>79000</v>
+        <v>79300</v>
       </c>
       <c r="H60" s="3">
-        <v>74500</v>
+        <v>74900</v>
       </c>
       <c r="I60" s="3">
-        <v>48800</v>
+        <v>49000</v>
       </c>
       <c r="J60" s="3">
-        <v>50100</v>
+        <v>50300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2942,25 +2942,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="E61" s="3">
-        <v>53600</v>
+        <v>53800</v>
       </c>
       <c r="F61" s="3">
-        <v>52400</v>
+        <v>52700</v>
       </c>
       <c r="G61" s="3">
-        <v>51300</v>
+        <v>51500</v>
       </c>
       <c r="H61" s="3">
-        <v>51800</v>
+        <v>52000</v>
       </c>
       <c r="I61" s="3">
-        <v>103400</v>
+        <v>103800</v>
       </c>
       <c r="J61" s="3">
-        <v>99500</v>
+        <v>100000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2992,19 +2992,19 @@
         <v>13200</v>
       </c>
       <c r="E62" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="F62" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="G62" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="H62" s="3">
         <v>12000</v>
       </c>
       <c r="I62" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="J62" s="3">
         <v>10400</v>
@@ -3177,25 +3177,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>89900</v>
+        <v>90300</v>
       </c>
       <c r="E66" s="3">
-        <v>150000</v>
+        <v>150700</v>
       </c>
       <c r="F66" s="3">
-        <v>145400</v>
+        <v>146100</v>
       </c>
       <c r="G66" s="3">
-        <v>143100</v>
+        <v>143800</v>
       </c>
       <c r="H66" s="3">
-        <v>138300</v>
+        <v>138900</v>
       </c>
       <c r="I66" s="3">
-        <v>163100</v>
+        <v>163900</v>
       </c>
       <c r="J66" s="3">
-        <v>159900</v>
+        <v>160700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>207700</v>
+        <v>208600</v>
       </c>
       <c r="E72" s="3">
-        <v>201300</v>
+        <v>202300</v>
       </c>
       <c r="F72" s="3">
-        <v>198300</v>
+        <v>199300</v>
       </c>
       <c r="G72" s="3">
-        <v>195000</v>
+        <v>195900</v>
       </c>
       <c r="H72" s="3">
-        <v>190500</v>
+        <v>191400</v>
       </c>
       <c r="I72" s="3">
-        <v>190800</v>
+        <v>191700</v>
       </c>
       <c r="J72" s="3">
         <v>-8700</v>
@@ -3619,25 +3619,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>207700</v>
+        <v>208600</v>
       </c>
       <c r="E76" s="3">
-        <v>201300</v>
+        <v>202300</v>
       </c>
       <c r="F76" s="3">
-        <v>198300</v>
+        <v>199300</v>
       </c>
       <c r="G76" s="3">
-        <v>195000</v>
+        <v>195900</v>
       </c>
       <c r="H76" s="3">
-        <v>190500</v>
+        <v>191400</v>
       </c>
       <c r="I76" s="3">
-        <v>190800</v>
+        <v>191700</v>
       </c>
       <c r="J76" s="3">
-        <v>98100</v>
+        <v>98600</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3783,7 +3783,7 @@
         <v>300</v>
       </c>
       <c r="J81" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="K81" s="3">
         <v>2700</v>
@@ -3843,7 +3843,7 @@
         <v>2700</v>
       </c>
       <c r="H83" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="I83" s="3">
         <v>2600</v>
@@ -4116,16 +4116,16 @@
         <v>-5100</v>
       </c>
       <c r="E89" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F89" s="3">
         <v>5800</v>
       </c>
       <c r="G89" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H89" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="I89" s="3">
         <v>8300</v>
@@ -4188,7 +4188,7 @@
         <v>-1300</v>
       </c>
       <c r="G91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H91" s="3">
         <v>-5000</v>
@@ -4320,7 +4320,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="E94" s="3">
         <v>-3000</v>
@@ -4332,10 +4332,10 @@
         <v>-3800</v>
       </c>
       <c r="H94" s="3">
-        <v>-118900</v>
+        <v>-119400</v>
       </c>
       <c r="I94" s="3">
-        <v>-96500</v>
+        <v>-97000</v>
       </c>
       <c r="J94" s="3">
         <v>-8200</v>
@@ -4574,7 +4574,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32000</v>
+        <v>-32100</v>
       </c>
       <c r="E100" s="3">
         <v>-1200</v>
@@ -4586,13 +4586,13 @@
         <v>-500</v>
       </c>
       <c r="H100" s="3">
-        <v>120300</v>
+        <v>120900</v>
       </c>
       <c r="I100" s="3">
-        <v>92100</v>
+        <v>92500</v>
       </c>
       <c r="J100" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="K100" s="3">
         <v>-300</v>
@@ -4668,7 +4668,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14800</v>
+        <v>-14900</v>
       </c>
       <c r="E102" s="3">
         <v>1700</v>
@@ -4683,10 +4683,10 @@
         <v>16300</v>
       </c>
       <c r="I102" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J102" s="3">
-        <v>30100</v>
+        <v>30300</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>VTRU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,217 +665,243 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>32500</v>
+        <v>57600</v>
       </c>
       <c r="E8" s="3">
-        <v>29000</v>
+        <v>33300</v>
       </c>
       <c r="F8" s="3">
-        <v>32600</v>
+        <v>31000</v>
       </c>
       <c r="G8" s="3">
-        <v>29500</v>
+        <v>27700</v>
       </c>
       <c r="H8" s="3">
-        <v>101600</v>
+        <v>31200</v>
       </c>
       <c r="I8" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>97100</v>
+      </c>
+      <c r="K8" s="3">
         <v>24700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>50200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>25300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>82300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>41900</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>11900</v>
+        <v>22100</v>
       </c>
       <c r="E9" s="3">
-        <v>13300</v>
+        <v>12200</v>
       </c>
       <c r="F9" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="G9" s="3">
-        <v>10400</v>
+        <v>12700</v>
       </c>
       <c r="H9" s="3">
-        <v>43300</v>
+        <v>11200</v>
       </c>
       <c r="I9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K9" s="3">
         <v>11500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>20800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>37800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>18800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>20600</v>
+        <v>35600</v>
       </c>
       <c r="E10" s="3">
-        <v>15700</v>
+        <v>21100</v>
       </c>
       <c r="F10" s="3">
-        <v>20900</v>
+        <v>19700</v>
       </c>
       <c r="G10" s="3">
-        <v>19100</v>
+        <v>15000</v>
       </c>
       <c r="H10" s="3">
-        <v>58300</v>
+        <v>20000</v>
       </c>
       <c r="I10" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K10" s="3">
         <v>13200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>29500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>14100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>44600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>23100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +919,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +968,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,72 +1021,84 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6700</v>
+        <v>7200</v>
       </c>
       <c r="E14" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="F14" s="3">
-        <v>5500</v>
+        <v>6400</v>
       </c>
       <c r="G14" s="3">
-        <v>4900</v>
+        <v>4400</v>
       </c>
       <c r="H14" s="3">
-        <v>15000</v>
+        <v>5200</v>
       </c>
       <c r="I14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K14" s="3">
         <v>4200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>6800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>10400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>4500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1063,11 +1109,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1081,8 +1127,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,102 +1149,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27900</v>
+        <v>50200</v>
       </c>
       <c r="E17" s="3">
-        <v>27300</v>
+        <v>28500</v>
       </c>
       <c r="F17" s="3">
-        <v>25900</v>
+        <v>26600</v>
       </c>
       <c r="G17" s="3">
-        <v>27000</v>
+        <v>26100</v>
       </c>
       <c r="H17" s="3">
-        <v>89700</v>
+        <v>24800</v>
       </c>
       <c r="I17" s="3">
+        <v>25800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K17" s="3">
         <v>22400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>41800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>23700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>88700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>42800</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4600</v>
+        <v>7400</v>
       </c>
       <c r="E18" s="3">
-        <v>1700</v>
+        <v>4800</v>
       </c>
       <c r="F18" s="3">
-        <v>6700</v>
+        <v>4400</v>
       </c>
       <c r="G18" s="3">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="H18" s="3">
-        <v>11900</v>
+        <v>6400</v>
       </c>
       <c r="I18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,243 +1276,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>5600</v>
-      </c>
       <c r="I20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9100</v>
+        <v>14200</v>
       </c>
       <c r="E21" s="3">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="F21" s="3">
-        <v>10200</v>
+        <v>8700</v>
       </c>
       <c r="G21" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="H21" s="3">
-        <v>27600</v>
+        <v>9800</v>
       </c>
       <c r="I21" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K21" s="3">
         <v>8300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>14400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>7500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>6000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3900</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="3">
-        <v>3400</v>
+        <v>1700</v>
       </c>
       <c r="F22" s="3">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="G22" s="3">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="H22" s="3">
-        <v>11000</v>
+        <v>2900</v>
       </c>
       <c r="I22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K22" s="3">
         <v>2800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>10100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2400</v>
+        <v>-1600</v>
       </c>
       <c r="E23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I23" s="3">
         <v>1600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3000</v>
       </c>
       <c r="J23" s="3">
         <v>6200</v>
       </c>
       <c r="K23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J24" s="3">
         <v>-3600</v>
       </c>
-      <c r="E24" s="3">
-        <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1590,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5900</v>
+        <v>3900</v>
       </c>
       <c r="E26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4200</v>
-      </c>
       <c r="H26" s="3">
-        <v>10200</v>
+        <v>2900</v>
       </c>
       <c r="I26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-11800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5900</v>
+        <v>3900</v>
       </c>
       <c r="E27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>4200</v>
-      </c>
       <c r="H27" s="3">
-        <v>10200</v>
+        <v>2900</v>
       </c>
       <c r="I27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>10300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-11800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1749,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1802,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1855,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,102 +1908,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-5600</v>
-      </c>
       <c r="I32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5900</v>
+        <v>3900</v>
       </c>
       <c r="E33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>4200</v>
-      </c>
       <c r="H33" s="3">
-        <v>10200</v>
+        <v>2900</v>
       </c>
       <c r="I33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>10300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-11800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +2067,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5900</v>
+        <v>3900</v>
       </c>
       <c r="E35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>4200</v>
-      </c>
       <c r="H35" s="3">
-        <v>10200</v>
+        <v>2900</v>
       </c>
       <c r="I35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>10300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-11800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2203,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,38 +2224,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14800</v>
+        <v>21200</v>
       </c>
       <c r="E41" s="3">
-        <v>29700</v>
+        <v>18100</v>
       </c>
       <c r="F41" s="3">
-        <v>28000</v>
+        <v>14100</v>
       </c>
       <c r="G41" s="3">
-        <v>18700</v>
+        <v>28400</v>
       </c>
       <c r="H41" s="3">
-        <v>16800</v>
+        <v>26800</v>
       </c>
       <c r="I41" s="3">
+        <v>17900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K41" s="3">
         <v>34600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>30800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,38 +2273,44 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>49500</v>
+        <v>34600</v>
       </c>
       <c r="E42" s="3">
-        <v>96300</v>
+        <v>48500</v>
       </c>
       <c r="F42" s="3">
-        <v>95100</v>
+        <v>47300</v>
       </c>
       <c r="G42" s="3">
-        <v>101300</v>
+        <v>92100</v>
       </c>
       <c r="H42" s="3">
-        <v>100800</v>
+        <v>90900</v>
       </c>
       <c r="I42" s="3">
+        <v>96800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K42" s="3">
         <v>110700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>15700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2146,38 +2326,44 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>29000</v>
+        <v>51500</v>
       </c>
       <c r="E43" s="3">
-        <v>26600</v>
+        <v>30100</v>
       </c>
       <c r="F43" s="3">
-        <v>26800</v>
+        <v>27700</v>
       </c>
       <c r="G43" s="3">
-        <v>24600</v>
+        <v>25500</v>
       </c>
       <c r="H43" s="3">
-        <v>23000</v>
+        <v>25600</v>
       </c>
       <c r="I43" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K43" s="3">
         <v>22100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>21600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2379,14 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,38 +2432,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7400</v>
+        <v>6100</v>
       </c>
       <c r="E45" s="3">
-        <v>5300</v>
+        <v>8500</v>
       </c>
       <c r="F45" s="3">
-        <v>2200</v>
+        <v>7100</v>
       </c>
       <c r="G45" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H45" s="3">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="I45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L45" s="3">
         <v>9700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2485,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100700</v>
+        <v>113400</v>
       </c>
       <c r="E46" s="3">
-        <v>157900</v>
+        <v>105300</v>
       </c>
       <c r="F46" s="3">
-        <v>152200</v>
+        <v>96300</v>
       </c>
       <c r="G46" s="3">
-        <v>147500</v>
+        <v>151000</v>
       </c>
       <c r="H46" s="3">
-        <v>143200</v>
+        <v>145500</v>
       </c>
       <c r="I46" s="3">
+        <v>141000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K46" s="3">
         <v>169900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>77700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,38 +2538,44 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="I47" s="3">
         <v>1200</v>
       </c>
-      <c r="F47" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>1300</v>
       </c>
-      <c r="H47" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,38 +2591,44 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47500</v>
+        <v>102900</v>
       </c>
       <c r="E48" s="3">
-        <v>46700</v>
+        <v>45800</v>
       </c>
       <c r="F48" s="3">
-        <v>45800</v>
+        <v>45500</v>
       </c>
       <c r="G48" s="3">
-        <v>44900</v>
+        <v>44600</v>
       </c>
       <c r="H48" s="3">
-        <v>44000</v>
+        <v>43800</v>
       </c>
       <c r="I48" s="3">
+        <v>42900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K48" s="3">
         <v>42700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>38000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,38 +2644,44 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>131100</v>
+        <v>849200</v>
       </c>
       <c r="E49" s="3">
-        <v>130800</v>
+        <v>125800</v>
       </c>
       <c r="F49" s="3">
-        <v>130100</v>
+        <v>125400</v>
       </c>
       <c r="G49" s="3">
+        <v>125000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>124400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>123600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>123700</v>
+      </c>
+      <c r="K49" s="3">
+        <v>129600</v>
+      </c>
+      <c r="L49" s="3">
         <v>129300</v>
       </c>
-      <c r="H49" s="3">
-        <v>129300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>129600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>129300</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,8 +2697,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2750,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,38 +2803,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18300</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="3">
-        <v>16400</v>
+        <v>17600</v>
       </c>
       <c r="F52" s="3">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="G52" s="3">
-        <v>16700</v>
+        <v>15700</v>
       </c>
       <c r="H52" s="3">
-        <v>12400</v>
+        <v>15300</v>
       </c>
       <c r="I52" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K52" s="3">
         <v>12100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>13600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2856,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,38 +2909,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>298900</v>
+        <v>1074000</v>
       </c>
       <c r="E54" s="3">
-        <v>352900</v>
+        <v>295500</v>
       </c>
       <c r="F54" s="3">
-        <v>345400</v>
+        <v>285800</v>
       </c>
       <c r="G54" s="3">
-        <v>339700</v>
+        <v>337400</v>
       </c>
       <c r="H54" s="3">
-        <v>330300</v>
+        <v>330200</v>
       </c>
       <c r="I54" s="3">
+        <v>324800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>315800</v>
+      </c>
+      <c r="K54" s="3">
         <v>355500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>259200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2962,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2987,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,37 +3008,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37500</v>
+        <v>171700</v>
       </c>
       <c r="E57" s="3">
-        <v>35100</v>
+        <v>40100</v>
       </c>
       <c r="F57" s="3">
-        <v>34800</v>
+        <v>35800</v>
       </c>
       <c r="G57" s="3">
-        <v>33800</v>
+        <v>33600</v>
       </c>
       <c r="H57" s="3">
-        <v>32700</v>
+        <v>33200</v>
       </c>
       <c r="I57" s="3">
-        <v>31700</v>
+        <v>32400</v>
       </c>
       <c r="J57" s="3">
         <v>31300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>31700</v>
+      </c>
+      <c r="L57" s="3">
+        <v>31300</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2795,38 +3057,44 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5300</v>
+        <v>10100</v>
       </c>
       <c r="E58" s="3">
-        <v>35100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>34800</v>
+        <v>5100</v>
       </c>
       <c r="G58" s="3">
-        <v>34600</v>
+        <v>33600</v>
       </c>
       <c r="H58" s="3">
-        <v>34300</v>
+        <v>33300</v>
       </c>
       <c r="I58" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,38 +3110,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8000</v>
+        <v>23300</v>
       </c>
       <c r="E59" s="3">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="F59" s="3">
-        <v>10800</v>
+        <v>7600</v>
       </c>
       <c r="G59" s="3">
-        <v>10900</v>
+        <v>12500</v>
       </c>
       <c r="H59" s="3">
-        <v>7900</v>
+        <v>10300</v>
       </c>
       <c r="I59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K59" s="3">
         <v>12500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>14600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,38 +3163,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>50800</v>
+        <v>205100</v>
       </c>
       <c r="E60" s="3">
-        <v>83200</v>
+        <v>54600</v>
       </c>
       <c r="F60" s="3">
-        <v>80400</v>
+        <v>48500</v>
       </c>
       <c r="G60" s="3">
-        <v>79300</v>
+        <v>79600</v>
       </c>
       <c r="H60" s="3">
-        <v>74900</v>
+        <v>76900</v>
       </c>
       <c r="I60" s="3">
+        <v>75800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>71600</v>
+      </c>
+      <c r="K60" s="3">
         <v>49000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>50300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,38 +3216,44 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26300</v>
+        <v>416300</v>
       </c>
       <c r="E61" s="3">
-        <v>53800</v>
+        <v>25500</v>
       </c>
       <c r="F61" s="3">
-        <v>52700</v>
+        <v>25100</v>
       </c>
       <c r="G61" s="3">
-        <v>51500</v>
+        <v>51400</v>
       </c>
       <c r="H61" s="3">
-        <v>52000</v>
+        <v>50400</v>
       </c>
       <c r="I61" s="3">
+        <v>49200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>49700</v>
+      </c>
+      <c r="K61" s="3">
         <v>103800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>100000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2983,38 +3269,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13200</v>
+        <v>134500</v>
       </c>
       <c r="E62" s="3">
-        <v>13600</v>
+        <v>10300</v>
       </c>
       <c r="F62" s="3">
-        <v>13000</v>
+        <v>12700</v>
       </c>
       <c r="G62" s="3">
         <v>13000</v>
       </c>
       <c r="H62" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="I62" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K62" s="3">
         <v>11000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>10400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3322,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3375,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3428,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,38 +3481,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>90300</v>
+        <v>755900</v>
       </c>
       <c r="E66" s="3">
-        <v>150700</v>
+        <v>90500</v>
       </c>
       <c r="F66" s="3">
-        <v>146100</v>
+        <v>86300</v>
       </c>
       <c r="G66" s="3">
-        <v>143800</v>
+        <v>144000</v>
       </c>
       <c r="H66" s="3">
-        <v>138900</v>
+        <v>139700</v>
       </c>
       <c r="I66" s="3">
+        <v>137500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>132800</v>
+      </c>
+      <c r="K66" s="3">
         <v>163900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>160700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3534,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3559,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3608,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3661,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3714,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,38 +3767,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>208600</v>
+        <v>318100</v>
       </c>
       <c r="E72" s="3">
-        <v>202300</v>
+        <v>205000</v>
       </c>
       <c r="F72" s="3">
-        <v>199300</v>
+        <v>199500</v>
       </c>
       <c r="G72" s="3">
-        <v>195900</v>
+        <v>193400</v>
       </c>
       <c r="H72" s="3">
-        <v>191400</v>
+        <v>190500</v>
       </c>
       <c r="I72" s="3">
+        <v>187300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>183000</v>
+      </c>
+      <c r="K72" s="3">
         <v>191700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3820,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3873,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3926,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,38 +3979,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>208600</v>
+        <v>318100</v>
       </c>
       <c r="E76" s="3">
-        <v>202300</v>
+        <v>205000</v>
       </c>
       <c r="F76" s="3">
-        <v>199300</v>
+        <v>199500</v>
       </c>
       <c r="G76" s="3">
-        <v>195900</v>
+        <v>193400</v>
       </c>
       <c r="H76" s="3">
-        <v>191400</v>
+        <v>190500</v>
       </c>
       <c r="I76" s="3">
+        <v>187300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>183000</v>
+      </c>
+      <c r="K76" s="3">
         <v>191700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>98600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +4032,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +4085,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5900</v>
+        <v>3900</v>
       </c>
       <c r="E81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>4200</v>
-      </c>
       <c r="H81" s="3">
-        <v>10200</v>
+        <v>2900</v>
       </c>
       <c r="I81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>10300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-11800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,55 +4221,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2900</v>
+        <v>5800</v>
       </c>
       <c r="E83" s="3">
         <v>2800</v>
       </c>
       <c r="F83" s="3">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="G83" s="3">
         <v>2700</v>
       </c>
       <c r="H83" s="3">
-        <v>10100</v>
+        <v>2200</v>
       </c>
       <c r="I83" s="3">
         <v>2600</v>
       </c>
       <c r="J83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L83" s="3">
         <v>4700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>5400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4323,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4376,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4429,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4482,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,55 +4535,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5100</v>
+        <v>12400</v>
       </c>
       <c r="E89" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I89" s="3">
         <v>5900</v>
       </c>
-      <c r="F89" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G89" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>14900</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K89" s="3">
         <v>8300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>10000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>6500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,55 +4613,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1700</v>
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4715,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,55 +4768,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>22400</v>
+        <v>-372300</v>
       </c>
       <c r="E94" s="3">
-        <v>-3000</v>
+        <v>-1900</v>
       </c>
       <c r="F94" s="3">
-        <v>4000</v>
+        <v>21400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3800</v>
+        <v>-2900</v>
       </c>
       <c r="H94" s="3">
-        <v>-119400</v>
+        <v>3900</v>
       </c>
       <c r="I94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-114200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-97000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-8200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-8800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-6300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4846,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4895,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4948,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +5001,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,55 +5054,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32100</v>
+        <v>362900</v>
       </c>
       <c r="E100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>115600</v>
+      </c>
+      <c r="K100" s="3">
+        <v>92500</v>
+      </c>
+      <c r="L100" s="3">
+        <v>28800</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>120900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>92500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>28800</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,51 +5160,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14900</v>
+        <v>3000</v>
       </c>
       <c r="E102" s="3">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="F102" s="3">
-        <v>9300</v>
+        <v>-14300</v>
       </c>
       <c r="G102" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="H102" s="3">
-        <v>16300</v>
+        <v>8900</v>
       </c>
       <c r="I102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K102" s="3">
         <v>3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>30300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>VTRU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,74 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -741,50 +742,53 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>57600</v>
+        <v>77600</v>
       </c>
       <c r="E8" s="3">
-        <v>33300</v>
+        <v>59600</v>
       </c>
       <c r="F8" s="3">
-        <v>31000</v>
+        <v>34400</v>
       </c>
       <c r="G8" s="3">
-        <v>27700</v>
+        <v>32100</v>
       </c>
       <c r="H8" s="3">
-        <v>31200</v>
+        <v>28700</v>
       </c>
       <c r="I8" s="3">
-        <v>28200</v>
+        <v>32200</v>
       </c>
       <c r="J8" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K8" s="3">
         <v>97100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>50200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>82300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41900</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -794,50 +798,53 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>22100</v>
+        <v>32700</v>
       </c>
       <c r="E9" s="3">
-        <v>12200</v>
+        <v>22800</v>
       </c>
       <c r="F9" s="3">
+        <v>12600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>41400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>11500</v>
+      </c>
+      <c r="M9" s="3">
+        <v>20800</v>
+      </c>
+      <c r="N9" s="3">
         <v>11300</v>
       </c>
-      <c r="G9" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>41400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>11500</v>
-      </c>
-      <c r="L9" s="3">
-        <v>20800</v>
-      </c>
-      <c r="M9" s="3">
-        <v>11300</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>37800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,50 +854,53 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>35600</v>
+        <v>44900</v>
       </c>
       <c r="E10" s="3">
-        <v>21100</v>
+        <v>36800</v>
       </c>
       <c r="F10" s="3">
-        <v>19700</v>
+        <v>21800</v>
       </c>
       <c r="G10" s="3">
-        <v>15000</v>
+        <v>20400</v>
       </c>
       <c r="H10" s="3">
-        <v>20000</v>
+        <v>15600</v>
       </c>
       <c r="I10" s="3">
-        <v>18300</v>
+        <v>20700</v>
       </c>
       <c r="J10" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K10" s="3">
         <v>55700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>44600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,50 +1044,53 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7200</v>
+        <v>8000</v>
       </c>
       <c r="E14" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J14" s="3">
         <v>4800</v>
       </c>
-      <c r="F14" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1080,28 +1100,31 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2600</v>
+        <v>6000</v>
       </c>
       <c r="E15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F15" s="3">
         <v>400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>500</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1115,8 +1138,8 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,50 +1177,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>50200</v>
+        <v>62200</v>
       </c>
       <c r="E17" s="3">
-        <v>28500</v>
+        <v>52000</v>
       </c>
       <c r="F17" s="3">
-        <v>26600</v>
+        <v>29500</v>
       </c>
       <c r="G17" s="3">
-        <v>26100</v>
+        <v>27600</v>
       </c>
       <c r="H17" s="3">
-        <v>24800</v>
+        <v>27000</v>
       </c>
       <c r="I17" s="3">
-        <v>25800</v>
+        <v>25600</v>
       </c>
       <c r="J17" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K17" s="3">
         <v>85700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>88700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1204,50 +1231,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7400</v>
+        <v>15400</v>
       </c>
       <c r="E18" s="3">
-        <v>4800</v>
+        <v>7600</v>
       </c>
       <c r="F18" s="3">
-        <v>4400</v>
+        <v>4900</v>
       </c>
       <c r="G18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H18" s="3">
         <v>1600</v>
       </c>
-      <c r="H18" s="3">
-        <v>6400</v>
-      </c>
       <c r="I18" s="3">
-        <v>2400</v>
+        <v>6600</v>
       </c>
       <c r="J18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K18" s="3">
         <v>11400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,50 +1311,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
-        <v>1900</v>
-      </c>
       <c r="F20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
-        <v>2400</v>
-      </c>
       <c r="H20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N20" s="3">
+        <v>500</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1331,50 +1365,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14200</v>
+        <v>28200</v>
       </c>
       <c r="E21" s="3">
-        <v>9500</v>
+        <v>14700</v>
       </c>
       <c r="F21" s="3">
-        <v>8700</v>
+        <v>9800</v>
       </c>
       <c r="G21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J21" s="3">
         <v>6700</v>
       </c>
-      <c r="H21" s="3">
-        <v>9800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,50 +1421,53 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="E22" s="3">
-        <v>1700</v>
+        <v>10400</v>
       </c>
       <c r="F22" s="3">
-        <v>3700</v>
+        <v>1800</v>
       </c>
       <c r="G22" s="3">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="H22" s="3">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="I22" s="3">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="J22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K22" s="3">
         <v>10500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1437,50 +1477,53 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1600</v>
+        <v>1600</v>
       </c>
       <c r="E23" s="3">
-        <v>4900</v>
+        <v>-1700</v>
       </c>
       <c r="F23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
-        <v>4600</v>
-      </c>
       <c r="I23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1490,50 +1533,53 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="E24" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
-        <v>-3400</v>
-      </c>
       <c r="G24" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>1700</v>
-      </c>
       <c r="I24" s="3">
-        <v>-2500</v>
+        <v>1800</v>
       </c>
       <c r="J24" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,50 +1645,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3900</v>
+        <v>6900</v>
       </c>
       <c r="E26" s="3">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="F26" s="3">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="G26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
-        <v>2900</v>
-      </c>
       <c r="I26" s="3">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="J26" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K26" s="3">
         <v>9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,50 +1701,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3900</v>
+        <v>6900</v>
       </c>
       <c r="E27" s="3">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="F27" s="3">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="G27" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
-        <v>2900</v>
-      </c>
       <c r="I27" s="3">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="J27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K27" s="3">
         <v>9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,8 +1757,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,50 +1981,53 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1900</v>
-      </c>
       <c r="F32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1967,50 +2037,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3900</v>
+        <v>6900</v>
       </c>
       <c r="E33" s="3">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="F33" s="3">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="G33" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
-        <v>2900</v>
-      </c>
       <c r="I33" s="3">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="J33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K33" s="3">
         <v>9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2093,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,50 +2149,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3900</v>
+        <v>6900</v>
       </c>
       <c r="E35" s="3">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="F35" s="3">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="G35" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
-        <v>2900</v>
-      </c>
       <c r="I35" s="3">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="J35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K35" s="3">
         <v>9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,55 +2205,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2184,8 +2266,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,41 +2312,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21200</v>
+        <v>36600</v>
       </c>
       <c r="E41" s="3">
-        <v>18100</v>
+        <v>21900</v>
       </c>
       <c r="F41" s="3">
-        <v>14100</v>
+        <v>18700</v>
       </c>
       <c r="G41" s="3">
-        <v>28400</v>
+        <v>14600</v>
       </c>
       <c r="H41" s="3">
-        <v>26800</v>
+        <v>29400</v>
       </c>
       <c r="I41" s="3">
-        <v>17900</v>
+        <v>27700</v>
       </c>
       <c r="J41" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K41" s="3">
         <v>16100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,41 +2366,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34600</v>
+        <v>12300</v>
       </c>
       <c r="E42" s="3">
-        <v>48500</v>
+        <v>35800</v>
       </c>
       <c r="F42" s="3">
-        <v>47300</v>
+        <v>50200</v>
       </c>
       <c r="G42" s="3">
-        <v>92100</v>
+        <v>49000</v>
       </c>
       <c r="H42" s="3">
-        <v>90900</v>
+        <v>95300</v>
       </c>
       <c r="I42" s="3">
-        <v>96800</v>
+        <v>94100</v>
       </c>
       <c r="J42" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K42" s="3">
         <v>96400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>110700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,41 +2422,44 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51500</v>
+        <v>52200</v>
       </c>
       <c r="E43" s="3">
-        <v>30100</v>
+        <v>53300</v>
       </c>
       <c r="F43" s="3">
-        <v>27700</v>
+        <v>31200</v>
       </c>
       <c r="G43" s="3">
-        <v>25500</v>
+        <v>28700</v>
       </c>
       <c r="H43" s="3">
-        <v>25600</v>
+        <v>26400</v>
       </c>
       <c r="I43" s="3">
-        <v>23500</v>
+        <v>26500</v>
       </c>
       <c r="J43" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K43" s="3">
         <v>22000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,41 +2534,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E45" s="3">
-        <v>8500</v>
+        <v>6300</v>
       </c>
       <c r="F45" s="3">
-        <v>7100</v>
+        <v>8800</v>
       </c>
       <c r="G45" s="3">
-        <v>5000</v>
+        <v>7300</v>
       </c>
       <c r="H45" s="3">
-        <v>2100</v>
+        <v>5200</v>
       </c>
       <c r="I45" s="3">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="J45" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="K45" s="3">
         <v>2500</v>
       </c>
       <c r="L45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M45" s="3">
         <v>9700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,41 +2590,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>113400</v>
+        <v>107300</v>
       </c>
       <c r="E46" s="3">
-        <v>105300</v>
+        <v>117300</v>
       </c>
       <c r="F46" s="3">
-        <v>96300</v>
+        <v>109000</v>
       </c>
       <c r="G46" s="3">
-        <v>151000</v>
+        <v>99700</v>
       </c>
       <c r="H46" s="3">
-        <v>145500</v>
+        <v>156200</v>
       </c>
       <c r="I46" s="3">
-        <v>141000</v>
+        <v>150600</v>
       </c>
       <c r="J46" s="3">
+        <v>146000</v>
+      </c>
+      <c r="K46" s="3">
         <v>136900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>169900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>77700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,16 +2646,19 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6200</v>
+        <v>15100</v>
       </c>
       <c r="E47" s="3">
-        <v>1100</v>
+        <v>6400</v>
       </c>
       <c r="F47" s="3">
         <v>1100</v>
@@ -2574,11 +2679,11 @@
         <v>1300</v>
       </c>
       <c r="L47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M47" s="3">
         <v>700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2597,41 +2702,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>102900</v>
+        <v>105500</v>
       </c>
       <c r="E48" s="3">
-        <v>45800</v>
+        <v>106500</v>
       </c>
       <c r="F48" s="3">
-        <v>45500</v>
+        <v>47400</v>
       </c>
       <c r="G48" s="3">
-        <v>44600</v>
+        <v>47000</v>
       </c>
       <c r="H48" s="3">
-        <v>43800</v>
+        <v>46200</v>
       </c>
       <c r="I48" s="3">
-        <v>42900</v>
+        <v>45400</v>
       </c>
       <c r="J48" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K48" s="3">
         <v>42000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>42700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,41 +2758,44 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>849200</v>
+        <v>874500</v>
       </c>
       <c r="E49" s="3">
-        <v>125800</v>
+        <v>878900</v>
       </c>
       <c r="F49" s="3">
-        <v>125400</v>
+        <v>130200</v>
       </c>
       <c r="G49" s="3">
-        <v>125000</v>
+        <v>129800</v>
       </c>
       <c r="H49" s="3">
-        <v>124400</v>
+        <v>129400</v>
       </c>
       <c r="I49" s="3">
-        <v>123600</v>
+        <v>128700</v>
       </c>
       <c r="J49" s="3">
+        <v>128000</v>
+      </c>
+      <c r="K49" s="3">
         <v>123700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>129600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>129300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,41 +2926,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="E52" s="3">
-        <v>17600</v>
+        <v>2400</v>
       </c>
       <c r="F52" s="3">
-        <v>17500</v>
+        <v>18200</v>
       </c>
       <c r="G52" s="3">
-        <v>15700</v>
+        <v>18100</v>
       </c>
       <c r="H52" s="3">
-        <v>15300</v>
+        <v>16200</v>
       </c>
       <c r="I52" s="3">
         <v>15900</v>
       </c>
       <c r="J52" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K52" s="3">
         <v>11900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,41 +3038,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1074000</v>
+        <v>1105100</v>
       </c>
       <c r="E54" s="3">
-        <v>295500</v>
+        <v>1111600</v>
       </c>
       <c r="F54" s="3">
-        <v>285800</v>
+        <v>305900</v>
       </c>
       <c r="G54" s="3">
-        <v>337400</v>
+        <v>295800</v>
       </c>
       <c r="H54" s="3">
-        <v>330200</v>
+        <v>349200</v>
       </c>
       <c r="I54" s="3">
-        <v>324800</v>
+        <v>341700</v>
       </c>
       <c r="J54" s="3">
+        <v>336100</v>
+      </c>
+      <c r="K54" s="3">
         <v>315800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>355500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>259200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,41 +3140,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>171700</v>
+        <v>43200</v>
       </c>
       <c r="E57" s="3">
-        <v>40100</v>
+        <v>177700</v>
       </c>
       <c r="F57" s="3">
-        <v>35800</v>
+        <v>41500</v>
       </c>
       <c r="G57" s="3">
-        <v>33600</v>
+        <v>37100</v>
       </c>
       <c r="H57" s="3">
-        <v>33200</v>
+        <v>34700</v>
       </c>
       <c r="I57" s="3">
-        <v>32400</v>
+        <v>34400</v>
       </c>
       <c r="J57" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K57" s="3">
         <v>31300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,41 +3194,44 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10100</v>
+        <v>29100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="F58" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>33600</v>
+        <v>5300</v>
       </c>
       <c r="H58" s="3">
-        <v>33300</v>
+        <v>34700</v>
       </c>
       <c r="I58" s="3">
-        <v>33000</v>
+        <v>34500</v>
       </c>
       <c r="J58" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K58" s="3">
         <v>32800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,41 +3250,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23300</v>
+        <v>29200</v>
       </c>
       <c r="E59" s="3">
-        <v>14500</v>
+        <v>24100</v>
       </c>
       <c r="F59" s="3">
-        <v>7600</v>
+        <v>15000</v>
       </c>
       <c r="G59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="L59" s="3">
         <v>12500</v>
       </c>
-      <c r="H59" s="3">
-        <v>10300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>7500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>12500</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,41 +3306,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>205100</v>
+        <v>101500</v>
       </c>
       <c r="E60" s="3">
-        <v>54600</v>
+        <v>212300</v>
       </c>
       <c r="F60" s="3">
-        <v>48500</v>
+        <v>56600</v>
       </c>
       <c r="G60" s="3">
+        <v>50200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>82400</v>
+      </c>
+      <c r="I60" s="3">
         <v>79600</v>
       </c>
-      <c r="H60" s="3">
-        <v>76900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>75800</v>
-      </c>
       <c r="J60" s="3">
+        <v>78500</v>
+      </c>
+      <c r="K60" s="3">
         <v>71600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,41 +3362,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>416300</v>
+        <v>424300</v>
       </c>
       <c r="E61" s="3">
-        <v>25500</v>
+        <v>430800</v>
       </c>
       <c r="F61" s="3">
-        <v>25100</v>
+        <v>26400</v>
       </c>
       <c r="G61" s="3">
-        <v>51400</v>
+        <v>26000</v>
       </c>
       <c r="H61" s="3">
-        <v>50400</v>
+        <v>53200</v>
       </c>
       <c r="I61" s="3">
-        <v>49200</v>
+        <v>52100</v>
       </c>
       <c r="J61" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K61" s="3">
         <v>49700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>103800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>100000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3275,41 +3418,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>134500</v>
+        <v>241100</v>
       </c>
       <c r="E62" s="3">
-        <v>10300</v>
+        <v>139200</v>
       </c>
       <c r="F62" s="3">
-        <v>12700</v>
+        <v>10700</v>
       </c>
       <c r="G62" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="H62" s="3">
-        <v>12400</v>
+        <v>13500</v>
       </c>
       <c r="I62" s="3">
-        <v>12400</v>
+        <v>12900</v>
       </c>
       <c r="J62" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K62" s="3">
         <v>11500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,41 +3642,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>755900</v>
+        <v>766900</v>
       </c>
       <c r="E66" s="3">
-        <v>90500</v>
+        <v>782300</v>
       </c>
       <c r="F66" s="3">
-        <v>86300</v>
+        <v>93700</v>
       </c>
       <c r="G66" s="3">
-        <v>144000</v>
+        <v>89300</v>
       </c>
       <c r="H66" s="3">
-        <v>139700</v>
+        <v>149100</v>
       </c>
       <c r="I66" s="3">
-        <v>137500</v>
+        <v>144600</v>
       </c>
       <c r="J66" s="3">
+        <v>142300</v>
+      </c>
+      <c r="K66" s="3">
         <v>132800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>163900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>160700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,41 +3944,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>318100</v>
+        <v>338300</v>
       </c>
       <c r="E72" s="3">
-        <v>205000</v>
+        <v>329300</v>
       </c>
       <c r="F72" s="3">
-        <v>199500</v>
+        <v>212200</v>
       </c>
       <c r="G72" s="3">
-        <v>193400</v>
+        <v>206400</v>
       </c>
       <c r="H72" s="3">
-        <v>190500</v>
+        <v>200100</v>
       </c>
       <c r="I72" s="3">
-        <v>187300</v>
+        <v>197200</v>
       </c>
       <c r="J72" s="3">
+        <v>193800</v>
+      </c>
+      <c r="K72" s="3">
         <v>183000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>191700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,41 +4168,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>318100</v>
+        <v>338300</v>
       </c>
       <c r="E76" s="3">
-        <v>205000</v>
+        <v>329300</v>
       </c>
       <c r="F76" s="3">
-        <v>199500</v>
+        <v>212200</v>
       </c>
       <c r="G76" s="3">
-        <v>193400</v>
+        <v>206400</v>
       </c>
       <c r="H76" s="3">
-        <v>190500</v>
+        <v>200100</v>
       </c>
       <c r="I76" s="3">
-        <v>187300</v>
+        <v>197200</v>
       </c>
       <c r="J76" s="3">
+        <v>193800</v>
+      </c>
+      <c r="K76" s="3">
         <v>183000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>191700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>98600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,55 +4280,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4149,50 +4341,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3900</v>
+        <v>6900</v>
       </c>
       <c r="E81" s="3">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="F81" s="3">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="G81" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
-        <v>2900</v>
-      </c>
       <c r="I81" s="3">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="J81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K81" s="3">
         <v>9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4202,8 +4397,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,50 +4421,51 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5800</v>
+        <v>10000</v>
       </c>
       <c r="E83" s="3">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="F83" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3">
-        <v>2200</v>
-      </c>
       <c r="I83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
-        <v>9600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,50 +4755,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12400</v>
+        <v>26500</v>
       </c>
       <c r="E89" s="3">
-        <v>7800</v>
+        <v>12800</v>
       </c>
       <c r="F89" s="3">
-        <v>-4900</v>
+        <v>8100</v>
       </c>
       <c r="G89" s="3">
-        <v>5600</v>
+        <v>-5100</v>
       </c>
       <c r="H89" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="I89" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="J89" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K89" s="3">
         <v>14200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6500</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,50 +4835,51 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,50 +5001,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-372300</v>
+        <v>-12100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1900</v>
+        <v>-385300</v>
       </c>
       <c r="F94" s="3">
-        <v>21400</v>
+        <v>-2000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2900</v>
+        <v>22100</v>
       </c>
       <c r="H94" s="3">
-        <v>3900</v>
+        <v>-3000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3600</v>
+        <v>4000</v>
       </c>
       <c r="J94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-114200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-97000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,50 +5303,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>362900</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1900</v>
+        <v>375600</v>
       </c>
       <c r="F100" s="3">
-        <v>-30700</v>
+        <v>-2000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1100</v>
+        <v>-31800</v>
       </c>
       <c r="H100" s="3">
-        <v>-500</v>
+        <v>-1200</v>
       </c>
       <c r="I100" s="3">
         <v>-500</v>
       </c>
       <c r="J100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K100" s="3">
         <v>115600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>92500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>28800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5113,8 +5359,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,50 +5415,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3000</v>
+        <v>14700</v>
       </c>
       <c r="E102" s="3">
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="F102" s="3">
-        <v>-14300</v>
+        <v>4100</v>
       </c>
       <c r="G102" s="3">
-        <v>1600</v>
+        <v>-14800</v>
       </c>
       <c r="H102" s="3">
-        <v>8900</v>
+        <v>1700</v>
       </c>
       <c r="I102" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>30300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5217,6 +5469,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>VTRU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,281 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>77600</v>
+        <v>89500</v>
       </c>
       <c r="E8" s="3">
-        <v>59600</v>
+        <v>86700</v>
       </c>
       <c r="F8" s="3">
-        <v>34400</v>
+        <v>80700</v>
       </c>
       <c r="G8" s="3">
-        <v>32100</v>
+        <v>62000</v>
       </c>
       <c r="H8" s="3">
-        <v>28700</v>
+        <v>35800</v>
       </c>
       <c r="I8" s="3">
+        <v>33400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K8" s="3">
         <v>32200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>29200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>97100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>24700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>50200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>25300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>82300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>41900</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>32700</v>
+        <v>30500</v>
       </c>
       <c r="E9" s="3">
-        <v>22800</v>
+        <v>30300</v>
       </c>
       <c r="F9" s="3">
-        <v>12600</v>
+        <v>34000</v>
       </c>
       <c r="G9" s="3">
-        <v>11700</v>
+        <v>23700</v>
       </c>
       <c r="H9" s="3">
         <v>13100</v>
       </c>
       <c r="I9" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K9" s="3">
         <v>11500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>41400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>20800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>37800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>18800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>44900</v>
+        <v>59000</v>
       </c>
       <c r="E10" s="3">
-        <v>36800</v>
+        <v>56400</v>
       </c>
       <c r="F10" s="3">
-        <v>21800</v>
+        <v>46700</v>
       </c>
       <c r="G10" s="3">
-        <v>20400</v>
+        <v>38300</v>
       </c>
       <c r="H10" s="3">
-        <v>15600</v>
+        <v>22700</v>
       </c>
       <c r="I10" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K10" s="3">
         <v>20700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>18900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>55700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>13200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>29500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>14100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>44600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>23100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +960,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1018,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,90 +1080,102 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8000</v>
+        <v>9600</v>
       </c>
       <c r="E14" s="3">
-        <v>7500</v>
+        <v>16400</v>
       </c>
       <c r="F14" s="3">
-        <v>5000</v>
+        <v>8400</v>
       </c>
       <c r="G14" s="3">
-        <v>6600</v>
+        <v>7800</v>
       </c>
       <c r="H14" s="3">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="I14" s="3">
-        <v>5400</v>
+        <v>6900</v>
       </c>
       <c r="J14" s="3">
         <v>4800</v>
       </c>
       <c r="K14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M14" s="3">
         <v>14400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>4200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>6800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>10400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="E15" s="3">
-        <v>2700</v>
+        <v>6300</v>
       </c>
       <c r="F15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H15" s="3">
         <v>400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>500</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3">
+        <v>500</v>
+      </c>
+      <c r="K15" s="3">
+        <v>500</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
@@ -1141,11 +1186,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1159,8 +1204,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1229,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>62200</v>
+        <v>69100</v>
       </c>
       <c r="E17" s="3">
-        <v>52000</v>
+        <v>75400</v>
       </c>
       <c r="F17" s="3">
-        <v>29500</v>
+        <v>64700</v>
       </c>
       <c r="G17" s="3">
-        <v>27600</v>
+        <v>54100</v>
       </c>
       <c r="H17" s="3">
-        <v>27000</v>
+        <v>30700</v>
       </c>
       <c r="I17" s="3">
+        <v>28700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K17" s="3">
         <v>25600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>26700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>85700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>22400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>41800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>23700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>88700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>42800</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15400</v>
+        <v>20400</v>
       </c>
       <c r="E18" s="3">
-        <v>7600</v>
+        <v>11300</v>
       </c>
       <c r="F18" s="3">
-        <v>4900</v>
+        <v>16100</v>
       </c>
       <c r="G18" s="3">
-        <v>4600</v>
+        <v>7900</v>
       </c>
       <c r="H18" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>8400</v>
+      </c>
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>11400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>8400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-6400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,288 +1377,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
         <v>1000</v>
       </c>
       <c r="F20" s="3">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="G20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>28200</v>
+        <v>32000</v>
       </c>
       <c r="E21" s="3">
-        <v>14700</v>
+        <v>18200</v>
       </c>
       <c r="F21" s="3">
-        <v>9800</v>
+        <v>29300</v>
       </c>
       <c r="G21" s="3">
-        <v>9000</v>
+        <v>15300</v>
       </c>
       <c r="H21" s="3">
-        <v>6900</v>
+        <v>10200</v>
       </c>
       <c r="I21" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K21" s="3">
         <v>10100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>26300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>8300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>14400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>7500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>6000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="E22" s="3">
-        <v>10400</v>
+        <v>17400</v>
       </c>
       <c r="F22" s="3">
-        <v>1800</v>
+        <v>17100</v>
       </c>
       <c r="G22" s="3">
-        <v>3800</v>
+        <v>10800</v>
       </c>
       <c r="H22" s="3">
-        <v>3400</v>
+        <v>1900</v>
       </c>
       <c r="I22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>10500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>10100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L23" s="3">
         <v>1600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3000</v>
       </c>
       <c r="M23" s="3">
         <v>6200</v>
       </c>
       <c r="N23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-13800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5300</v>
+        <v>-6000</v>
       </c>
       <c r="E24" s="3">
-        <v>-5700</v>
+        <v>-7600</v>
       </c>
       <c r="F24" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1745,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6900</v>
+        <v>11300</v>
       </c>
       <c r="E26" s="3">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="F26" s="3">
-        <v>4600</v>
+        <v>7200</v>
       </c>
       <c r="G26" s="3">
-        <v>5900</v>
+        <v>4200</v>
       </c>
       <c r="H26" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>10300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-11800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6900</v>
+        <v>11300</v>
       </c>
       <c r="E27" s="3">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="F27" s="3">
-        <v>4600</v>
+        <v>7200</v>
       </c>
       <c r="G27" s="3">
-        <v>5900</v>
+        <v>4200</v>
       </c>
       <c r="H27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>10300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-11800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1931,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1993,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +2055,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2117,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2700</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
         <v>-1000</v>
       </c>
       <c r="F32" s="3">
-        <v>-2000</v>
+        <v>-2800</v>
       </c>
       <c r="G32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6900</v>
+        <v>11300</v>
       </c>
       <c r="E33" s="3">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="F33" s="3">
-        <v>4600</v>
+        <v>7200</v>
       </c>
       <c r="G33" s="3">
-        <v>5900</v>
+        <v>4200</v>
       </c>
       <c r="H33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-11800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2303,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6900</v>
+        <v>11300</v>
       </c>
       <c r="E35" s="3">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="F35" s="3">
-        <v>4600</v>
+        <v>7200</v>
       </c>
       <c r="G35" s="3">
-        <v>5900</v>
+        <v>4200</v>
       </c>
       <c r="H35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-11800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2460,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,47 +2484,49 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36600</v>
+        <v>3200</v>
       </c>
       <c r="E41" s="3">
-        <v>21900</v>
+        <v>9500</v>
       </c>
       <c r="F41" s="3">
-        <v>18700</v>
+        <v>38100</v>
       </c>
       <c r="G41" s="3">
-        <v>14600</v>
+        <v>22800</v>
       </c>
       <c r="H41" s="3">
-        <v>29400</v>
+        <v>19500</v>
       </c>
       <c r="I41" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K41" s="3">
         <v>27700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>18500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>16100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>34600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>30800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,47 +2542,53 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12300</v>
+        <v>30300</v>
       </c>
       <c r="E42" s="3">
-        <v>35800</v>
+        <v>5300</v>
       </c>
       <c r="F42" s="3">
-        <v>50200</v>
+        <v>12800</v>
       </c>
       <c r="G42" s="3">
-        <v>49000</v>
+        <v>37300</v>
       </c>
       <c r="H42" s="3">
-        <v>95300</v>
+        <v>52200</v>
       </c>
       <c r="I42" s="3">
+        <v>51000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>99100</v>
+      </c>
+      <c r="K42" s="3">
         <v>94100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>100200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>96400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>110700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>15700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,47 +2604,53 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>52200</v>
+        <v>57900</v>
       </c>
       <c r="E43" s="3">
-        <v>53300</v>
+        <v>53000</v>
       </c>
       <c r="F43" s="3">
-        <v>31200</v>
+        <v>54300</v>
       </c>
       <c r="G43" s="3">
-        <v>28700</v>
+        <v>55500</v>
       </c>
       <c r="H43" s="3">
-        <v>26400</v>
+        <v>32400</v>
       </c>
       <c r="I43" s="3">
+        <v>29900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K43" s="3">
         <v>26500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>24400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>22000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>22100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>21600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,8 +2666,14 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,47 +2728,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6200</v>
+        <v>8000</v>
       </c>
       <c r="E45" s="3">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="F45" s="3">
-        <v>8800</v>
+        <v>6400</v>
       </c>
       <c r="G45" s="3">
-        <v>7300</v>
+        <v>6500</v>
       </c>
       <c r="H45" s="3">
-        <v>5200</v>
+        <v>9200</v>
       </c>
       <c r="I45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>9700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,47 +2790,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>107300</v>
+        <v>99500</v>
       </c>
       <c r="E46" s="3">
-        <v>117300</v>
+        <v>74800</v>
       </c>
       <c r="F46" s="3">
-        <v>109000</v>
+        <v>111600</v>
       </c>
       <c r="G46" s="3">
-        <v>99700</v>
+        <v>122100</v>
       </c>
       <c r="H46" s="3">
-        <v>156200</v>
+        <v>113300</v>
       </c>
       <c r="I46" s="3">
+        <v>103700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>162500</v>
+      </c>
+      <c r="K46" s="3">
         <v>150600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>146000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>136900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>169900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>77700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,22 +2852,28 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15100</v>
+        <v>19600</v>
       </c>
       <c r="E47" s="3">
-        <v>6400</v>
+        <v>19200</v>
       </c>
       <c r="F47" s="3">
-        <v>1100</v>
+        <v>15700</v>
       </c>
       <c r="G47" s="3">
-        <v>1100</v>
+        <v>6700</v>
       </c>
       <c r="H47" s="3">
         <v>1200</v>
@@ -2673,23 +2882,23 @@
         <v>1200</v>
       </c>
       <c r="J47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L47" s="3">
         <v>1300</v>
       </c>
       <c r="M47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O47" s="3">
         <v>700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,47 +2914,53 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>105500</v>
+        <v>108400</v>
       </c>
       <c r="E48" s="3">
-        <v>106500</v>
+        <v>109800</v>
       </c>
       <c r="F48" s="3">
-        <v>47400</v>
+        <v>109700</v>
       </c>
       <c r="G48" s="3">
-        <v>47000</v>
+        <v>110800</v>
       </c>
       <c r="H48" s="3">
-        <v>46200</v>
+        <v>49300</v>
       </c>
       <c r="I48" s="3">
+        <v>48900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K48" s="3">
         <v>45400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>44400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>42000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>42700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>38000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,47 +2976,53 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>874500</v>
+        <v>887300</v>
       </c>
       <c r="E49" s="3">
-        <v>878900</v>
+        <v>891700</v>
       </c>
       <c r="F49" s="3">
-        <v>130200</v>
+        <v>909600</v>
       </c>
       <c r="G49" s="3">
-        <v>129800</v>
+        <v>914200</v>
       </c>
       <c r="H49" s="3">
-        <v>129400</v>
+        <v>135400</v>
       </c>
       <c r="I49" s="3">
+        <v>135000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>134600</v>
+      </c>
+      <c r="K49" s="3">
         <v>128700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>128000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>123700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>129600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>129300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3038,14 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +3100,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,47 +3162,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2800</v>
+        <v>48000</v>
       </c>
       <c r="E52" s="3">
-        <v>2400</v>
+        <v>44300</v>
       </c>
       <c r="F52" s="3">
-        <v>18200</v>
+        <v>2900</v>
       </c>
       <c r="G52" s="3">
-        <v>18100</v>
+        <v>2500</v>
       </c>
       <c r="H52" s="3">
-        <v>16200</v>
+        <v>19000</v>
       </c>
       <c r="I52" s="3">
+        <v>18900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K52" s="3">
         <v>15900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>16500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>11900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>12100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>13600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3224,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,47 +3286,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1105100</v>
+        <v>1162800</v>
       </c>
       <c r="E54" s="3">
-        <v>1111600</v>
+        <v>1139700</v>
       </c>
       <c r="F54" s="3">
-        <v>305900</v>
+        <v>1149500</v>
       </c>
       <c r="G54" s="3">
-        <v>295800</v>
+        <v>1156200</v>
       </c>
       <c r="H54" s="3">
-        <v>349200</v>
+        <v>318200</v>
       </c>
       <c r="I54" s="3">
+        <v>307600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>363200</v>
+      </c>
+      <c r="K54" s="3">
         <v>341700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>336100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>315800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>355500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>259200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3348,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3376,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,46 +3400,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>44900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>184900</v>
+      </c>
+      <c r="H57" s="3">
         <v>43200</v>
       </c>
-      <c r="E57" s="3">
-        <v>177700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>37100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>34700</v>
-      </c>
       <c r="I57" s="3">
+        <v>38600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K57" s="3">
         <v>34400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>33500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>31300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>31700</v>
       </c>
       <c r="M57" s="3">
         <v>31300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>31700</v>
+      </c>
+      <c r="O57" s="3">
+        <v>31300</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -3197,47 +3458,53 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29100</v>
+        <v>47800</v>
       </c>
       <c r="E58" s="3">
-        <v>10400</v>
+        <v>36700</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>30300</v>
       </c>
       <c r="G58" s="3">
-        <v>5300</v>
+        <v>10800</v>
       </c>
       <c r="H58" s="3">
-        <v>34700</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K58" s="3">
         <v>34500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>34200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>32800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,47 +3520,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>29200</v>
+        <v>25300</v>
       </c>
       <c r="E59" s="3">
-        <v>24100</v>
+        <v>22200</v>
       </c>
       <c r="F59" s="3">
-        <v>15000</v>
+        <v>30300</v>
       </c>
       <c r="G59" s="3">
-        <v>7900</v>
+        <v>25100</v>
       </c>
       <c r="H59" s="3">
-        <v>12900</v>
+        <v>15600</v>
       </c>
       <c r="I59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K59" s="3">
         <v>10700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>12500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>14600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,47 +3582,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>101500</v>
+        <v>87500</v>
       </c>
       <c r="E60" s="3">
-        <v>212300</v>
+        <v>79000</v>
       </c>
       <c r="F60" s="3">
-        <v>56600</v>
+        <v>105500</v>
       </c>
       <c r="G60" s="3">
-        <v>50200</v>
+        <v>220800</v>
       </c>
       <c r="H60" s="3">
-        <v>82400</v>
+        <v>58800</v>
       </c>
       <c r="I60" s="3">
+        <v>52200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K60" s="3">
         <v>79600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>78500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>71600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>49000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>50300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,47 +3644,53 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>424300</v>
+        <v>355100</v>
       </c>
       <c r="E61" s="3">
-        <v>430800</v>
+        <v>354700</v>
       </c>
       <c r="F61" s="3">
-        <v>26400</v>
+        <v>441300</v>
       </c>
       <c r="G61" s="3">
-        <v>26000</v>
+        <v>448100</v>
       </c>
       <c r="H61" s="3">
-        <v>53200</v>
+        <v>27500</v>
       </c>
       <c r="I61" s="3">
+        <v>27100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K61" s="3">
         <v>52100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>51000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>49700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>103800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>100000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3421,47 +3706,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>241100</v>
+        <v>268800</v>
       </c>
       <c r="E62" s="3">
-        <v>139200</v>
+        <v>268100</v>
       </c>
       <c r="F62" s="3">
-        <v>10700</v>
+        <v>250800</v>
       </c>
       <c r="G62" s="3">
-        <v>13100</v>
+        <v>144800</v>
       </c>
       <c r="H62" s="3">
-        <v>13500</v>
+        <v>11100</v>
       </c>
       <c r="I62" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K62" s="3">
         <v>12900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>11500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3768,14 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3830,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3892,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,47 +3954,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>766900</v>
+        <v>711400</v>
       </c>
       <c r="E66" s="3">
-        <v>782300</v>
+        <v>701800</v>
       </c>
       <c r="F66" s="3">
-        <v>93700</v>
+        <v>797600</v>
       </c>
       <c r="G66" s="3">
-        <v>89300</v>
+        <v>813700</v>
       </c>
       <c r="H66" s="3">
-        <v>149100</v>
+        <v>97400</v>
       </c>
       <c r="I66" s="3">
+        <v>92900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>155000</v>
+      </c>
+      <c r="K66" s="3">
         <v>144600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>142300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>132800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>163900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>160700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +4016,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +4044,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +4102,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4164,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4226,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,47 +4288,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>338300</v>
+        <v>451400</v>
       </c>
       <c r="E72" s="3">
-        <v>329300</v>
+        <v>437900</v>
       </c>
       <c r="F72" s="3">
-        <v>212200</v>
+        <v>351900</v>
       </c>
       <c r="G72" s="3">
-        <v>206400</v>
+        <v>342500</v>
       </c>
       <c r="H72" s="3">
-        <v>200100</v>
+        <v>220700</v>
       </c>
       <c r="I72" s="3">
+        <v>214700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>208200</v>
+      </c>
+      <c r="K72" s="3">
         <v>197200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>193800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>183000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>191700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4350,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4412,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4474,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,47 +4536,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>338300</v>
+        <v>451400</v>
       </c>
       <c r="E76" s="3">
-        <v>329300</v>
+        <v>437900</v>
       </c>
       <c r="F76" s="3">
-        <v>212200</v>
+        <v>351900</v>
       </c>
       <c r="G76" s="3">
-        <v>206400</v>
+        <v>342500</v>
       </c>
       <c r="H76" s="3">
-        <v>200100</v>
+        <v>220700</v>
       </c>
       <c r="I76" s="3">
+        <v>214700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>208200</v>
+      </c>
+      <c r="K76" s="3">
         <v>197200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>193800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>183000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>191700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>98600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4598,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4660,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6900</v>
+        <v>11300</v>
       </c>
       <c r="E81" s="3">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="F81" s="3">
-        <v>4600</v>
+        <v>7200</v>
       </c>
       <c r="G81" s="3">
-        <v>5900</v>
+        <v>4200</v>
       </c>
       <c r="H81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-11800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4817,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="E83" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="F83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J83" s="3">
         <v>2900</v>
       </c>
-      <c r="G83" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3">
-        <v>9600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>11100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>5400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4937,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4999,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +5061,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +5123,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +5185,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26500</v>
+        <v>23800</v>
       </c>
       <c r="E89" s="3">
-        <v>12800</v>
+        <v>-24800</v>
       </c>
       <c r="F89" s="3">
-        <v>8100</v>
+        <v>27600</v>
       </c>
       <c r="G89" s="3">
-        <v>-5100</v>
+        <v>13300</v>
       </c>
       <c r="H89" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K89" s="3">
         <v>5800</v>
       </c>
-      <c r="I89" s="3">
-        <v>5800</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>6100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>14200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>8300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>9700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>10000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>6500</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5275,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2700</v>
+        <v>-19900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1400</v>
+        <v>-136900</v>
       </c>
       <c r="F91" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2093900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-133700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5395,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5457,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12100</v>
+        <v>-29000</v>
       </c>
       <c r="E94" s="3">
-        <v>-385300</v>
+        <v>-20100</v>
       </c>
       <c r="F94" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-400800</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
-        <v>22100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-3000</v>
-      </c>
       <c r="I94" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K94" s="3">
         <v>4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-114200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-97000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-8200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-8800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5547,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5605,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5667,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5729,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5791,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>375600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-2000</v>
-      </c>
       <c r="G100" s="3">
-        <v>-31800</v>
+        <v>390700</v>
       </c>
       <c r="H100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>115600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>92500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>28800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5915,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>14700</v>
+        <v>-6300</v>
       </c>
       <c r="E102" s="3">
-        <v>3100</v>
+        <v>-28600</v>
       </c>
       <c r="F102" s="3">
-        <v>4100</v>
+        <v>15300</v>
       </c>
       <c r="G102" s="3">
-        <v>-14800</v>
+        <v>3300</v>
       </c>
       <c r="H102" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>9200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>15600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>30300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>VTRU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -752,59 +753,62 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>89500</v>
+        <v>105300</v>
       </c>
       <c r="E8" s="3">
-        <v>86700</v>
+        <v>89700</v>
       </c>
       <c r="F8" s="3">
-        <v>80700</v>
+        <v>86900</v>
       </c>
       <c r="G8" s="3">
-        <v>62000</v>
+        <v>80900</v>
       </c>
       <c r="H8" s="3">
-        <v>35800</v>
+        <v>62200</v>
       </c>
       <c r="I8" s="3">
-        <v>33400</v>
+        <v>35900</v>
       </c>
       <c r="J8" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K8" s="3">
         <v>29800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>97100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>50200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>25300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>82300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>41900</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
@@ -814,59 +818,62 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E9" s="3">
         <v>30500</v>
       </c>
-      <c r="E9" s="3">
-        <v>30300</v>
-      </c>
       <c r="F9" s="3">
-        <v>34000</v>
+        <v>30400</v>
       </c>
       <c r="G9" s="3">
-        <v>23700</v>
+        <v>34100</v>
       </c>
       <c r="H9" s="3">
+        <v>23800</v>
+      </c>
+      <c r="I9" s="3">
         <v>13100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>37800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18800</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,59 +883,62 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>59000</v>
+        <v>69800</v>
       </c>
       <c r="E10" s="3">
-        <v>56400</v>
+        <v>59100</v>
       </c>
       <c r="F10" s="3">
-        <v>46700</v>
+        <v>56600</v>
       </c>
       <c r="G10" s="3">
-        <v>38300</v>
+        <v>46800</v>
       </c>
       <c r="H10" s="3">
+        <v>38400</v>
+      </c>
+      <c r="I10" s="3">
         <v>22700</v>
       </c>
-      <c r="I10" s="3">
-        <v>21200</v>
-      </c>
       <c r="J10" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K10" s="3">
         <v>16200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>55700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>44600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,59 +1103,62 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E14" s="3">
         <v>9600</v>
       </c>
-      <c r="E14" s="3">
-        <v>16400</v>
-      </c>
       <c r="F14" s="3">
+        <v>16500</v>
+      </c>
+      <c r="G14" s="3">
         <v>8400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4500</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,28 +1168,31 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E15" s="3">
         <v>6600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>500</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
@@ -1177,8 +1200,8 @@
       <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3">
+        <v>500</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1192,8 +1215,8 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,59 +1257,60 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>69100</v>
+        <v>79900</v>
       </c>
       <c r="E17" s="3">
-        <v>75400</v>
+        <v>69300</v>
       </c>
       <c r="F17" s="3">
-        <v>64700</v>
+        <v>75600</v>
       </c>
       <c r="G17" s="3">
-        <v>54100</v>
+        <v>64800</v>
       </c>
       <c r="H17" s="3">
-        <v>30700</v>
+        <v>54200</v>
       </c>
       <c r="I17" s="3">
+        <v>30800</v>
+      </c>
+      <c r="J17" s="3">
         <v>28700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>85700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>88700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>42800</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,59 +1320,62 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E18" s="3">
         <v>20400</v>
       </c>
-      <c r="E18" s="3">
-        <v>11300</v>
-      </c>
       <c r="F18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G18" s="3">
         <v>16100</v>
       </c>
-      <c r="G18" s="3">
-        <v>7900</v>
-      </c>
       <c r="H18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I18" s="3">
         <v>5100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1385,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,59 +1412,60 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,59 +1475,62 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E21" s="3">
         <v>32000</v>
       </c>
-      <c r="E21" s="3">
-        <v>18200</v>
-      </c>
       <c r="F21" s="3">
-        <v>29300</v>
+        <v>18300</v>
       </c>
       <c r="G21" s="3">
-        <v>15300</v>
+        <v>29400</v>
       </c>
       <c r="H21" s="3">
+        <v>15400</v>
+      </c>
+      <c r="I21" s="3">
         <v>10200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>14400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1503,59 +1540,62 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E22" s="3">
         <v>16100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17400</v>
       </c>
-      <c r="F22" s="3">
-        <v>17100</v>
-      </c>
       <c r="G22" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H22" s="3">
         <v>10800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5200</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1565,59 +1605,62 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E23" s="3">
         <v>5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1627,59 +1670,62 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1689,8 +1735,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,59 +1800,62 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E26" s="3">
         <v>11300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,59 +1865,62 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E27" s="3">
         <v>11300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,8 +1930,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,59 +2190,62 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,59 +2255,62 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E33" s="3">
         <v>11300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2320,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,59 +2385,62 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E35" s="3">
         <v>11300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,64 +2450,67 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2520,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,50 +2572,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9500</v>
       </c>
-      <c r="F41" s="3">
-        <v>38100</v>
-      </c>
       <c r="G41" s="3">
+        <v>38200</v>
+      </c>
+      <c r="H41" s="3">
         <v>22800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19500</v>
       </c>
-      <c r="I41" s="3">
-        <v>15200</v>
-      </c>
       <c r="J41" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K41" s="3">
         <v>30600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,50 +2635,53 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30300</v>
+        <v>51400</v>
       </c>
       <c r="E42" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F42" s="3">
         <v>5300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12800</v>
       </c>
-      <c r="G42" s="3">
-        <v>37300</v>
-      </c>
       <c r="H42" s="3">
-        <v>52200</v>
+        <v>37400</v>
       </c>
       <c r="I42" s="3">
-        <v>51000</v>
+        <v>52300</v>
       </c>
       <c r="J42" s="3">
+        <v>51100</v>
+      </c>
+      <c r="K42" s="3">
         <v>99100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>94100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>100200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>96400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>110700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,50 +2700,53 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>57900</v>
+        <v>66800</v>
       </c>
       <c r="E43" s="3">
-        <v>53000</v>
+        <v>58000</v>
       </c>
       <c r="F43" s="3">
-        <v>54300</v>
+        <v>53100</v>
       </c>
       <c r="G43" s="3">
-        <v>55500</v>
+        <v>54500</v>
       </c>
       <c r="H43" s="3">
-        <v>32400</v>
+        <v>55600</v>
       </c>
       <c r="I43" s="3">
+        <v>32500</v>
+      </c>
+      <c r="J43" s="3">
         <v>29900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>22000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2672,8 +2765,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,50 +2830,53 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E45" s="3">
         <v>8000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>2500</v>
       </c>
       <c r="N45" s="3">
         <v>2500</v>
       </c>
       <c r="O45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P45" s="3">
         <v>9700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,50 +2895,53 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>99500</v>
+        <v>148300</v>
       </c>
       <c r="E46" s="3">
-        <v>74800</v>
+        <v>99700</v>
       </c>
       <c r="F46" s="3">
-        <v>111600</v>
+        <v>75000</v>
       </c>
       <c r="G46" s="3">
-        <v>122100</v>
+        <v>111800</v>
       </c>
       <c r="H46" s="3">
-        <v>113300</v>
+        <v>122300</v>
       </c>
       <c r="I46" s="3">
-        <v>103700</v>
+        <v>113600</v>
       </c>
       <c r="J46" s="3">
+        <v>103900</v>
+      </c>
+      <c r="K46" s="3">
         <v>162500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>150600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>146000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>136900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>169900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>77700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,25 +2960,28 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E47" s="3">
         <v>19600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>15700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1200</v>
       </c>
       <c r="I47" s="3">
         <v>1200</v>
@@ -2888,7 +2993,7 @@
         <v>1200</v>
       </c>
       <c r="L47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M47" s="3">
         <v>1300</v>
@@ -2897,11 +3002,11 @@
         <v>1300</v>
       </c>
       <c r="O47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P47" s="3">
         <v>700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2920,50 +3025,53 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>108400</v>
+        <v>108100</v>
       </c>
       <c r="E48" s="3">
-        <v>109800</v>
+        <v>108700</v>
       </c>
       <c r="F48" s="3">
-        <v>109700</v>
+        <v>110000</v>
       </c>
       <c r="G48" s="3">
-        <v>110800</v>
+        <v>110000</v>
       </c>
       <c r="H48" s="3">
-        <v>49300</v>
+        <v>111000</v>
       </c>
       <c r="I48" s="3">
-        <v>48900</v>
+        <v>49400</v>
       </c>
       <c r="J48" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K48" s="3">
         <v>48100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>42000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>42700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>38000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,50 +3090,53 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>887300</v>
+        <v>886400</v>
       </c>
       <c r="E49" s="3">
-        <v>891700</v>
+        <v>889300</v>
       </c>
       <c r="F49" s="3">
-        <v>909600</v>
+        <v>893700</v>
       </c>
       <c r="G49" s="3">
-        <v>914200</v>
+        <v>911600</v>
       </c>
       <c r="H49" s="3">
-        <v>135400</v>
+        <v>916200</v>
       </c>
       <c r="I49" s="3">
-        <v>135000</v>
+        <v>135700</v>
       </c>
       <c r="J49" s="3">
+        <v>135300</v>
+      </c>
+      <c r="K49" s="3">
         <v>134600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>128700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>123700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>129600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>129300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,50 +3285,53 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>48000</v>
+        <v>58400</v>
       </c>
       <c r="E52" s="3">
-        <v>44300</v>
+        <v>48100</v>
       </c>
       <c r="F52" s="3">
+        <v>44400</v>
+      </c>
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,50 +3415,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1162800</v>
+        <v>1220300</v>
       </c>
       <c r="E54" s="3">
-        <v>1139700</v>
+        <v>1165300</v>
       </c>
       <c r="F54" s="3">
-        <v>1149500</v>
+        <v>1142200</v>
       </c>
       <c r="G54" s="3">
-        <v>1156200</v>
+        <v>1152000</v>
       </c>
       <c r="H54" s="3">
-        <v>318200</v>
+        <v>1158700</v>
       </c>
       <c r="I54" s="3">
-        <v>307600</v>
+        <v>318800</v>
       </c>
       <c r="J54" s="3">
+        <v>308300</v>
+      </c>
+      <c r="K54" s="3">
         <v>363200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>341700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>336100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>315800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>355500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>259200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,50 +3532,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14400</v>
+        <v>125000</v>
       </c>
       <c r="E57" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F57" s="3">
         <v>20100</v>
       </c>
-      <c r="F57" s="3">
-        <v>44900</v>
-      </c>
       <c r="G57" s="3">
-        <v>184900</v>
+        <v>45000</v>
       </c>
       <c r="H57" s="3">
-        <v>43200</v>
+        <v>185300</v>
       </c>
       <c r="I57" s="3">
+        <v>43300</v>
+      </c>
+      <c r="J57" s="3">
         <v>38600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,50 +3595,53 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>47800</v>
+        <v>56600</v>
       </c>
       <c r="E58" s="3">
-        <v>36700</v>
+        <v>47900</v>
       </c>
       <c r="F58" s="3">
-        <v>30300</v>
+        <v>36800</v>
       </c>
       <c r="G58" s="3">
-        <v>10800</v>
+        <v>30400</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>5500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>36100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>34500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>34200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3526,50 +3660,53 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25300</v>
+        <v>31500</v>
       </c>
       <c r="E59" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F59" s="3">
         <v>22200</v>
       </c>
-      <c r="F59" s="3">
-        <v>30300</v>
-      </c>
       <c r="G59" s="3">
+        <v>30400</v>
+      </c>
+      <c r="H59" s="3">
         <v>25100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,50 +3725,53 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>87500</v>
+        <v>213100</v>
       </c>
       <c r="E60" s="3">
-        <v>79000</v>
+        <v>87700</v>
       </c>
       <c r="F60" s="3">
-        <v>105500</v>
+        <v>79200</v>
       </c>
       <c r="G60" s="3">
-        <v>220800</v>
+        <v>105800</v>
       </c>
       <c r="H60" s="3">
-        <v>58800</v>
+        <v>221300</v>
       </c>
       <c r="I60" s="3">
-        <v>52200</v>
+        <v>59000</v>
       </c>
       <c r="J60" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K60" s="3">
         <v>85700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,50 +3790,53 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>355100</v>
+        <v>369300</v>
       </c>
       <c r="E61" s="3">
-        <v>354700</v>
+        <v>355800</v>
       </c>
       <c r="F61" s="3">
-        <v>441300</v>
+        <v>355500</v>
       </c>
       <c r="G61" s="3">
-        <v>448100</v>
+        <v>442300</v>
       </c>
       <c r="H61" s="3">
-        <v>27500</v>
+        <v>449100</v>
       </c>
       <c r="I61" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J61" s="3">
         <v>27100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>55400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>52100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>51000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>49700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>103800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>100000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3712,50 +3855,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>268800</v>
+        <v>168000</v>
       </c>
       <c r="E62" s="3">
-        <v>268100</v>
+        <v>269300</v>
       </c>
       <c r="F62" s="3">
-        <v>250800</v>
+        <v>268700</v>
       </c>
       <c r="G62" s="3">
-        <v>144800</v>
+        <v>251300</v>
       </c>
       <c r="H62" s="3">
+        <v>145100</v>
+      </c>
+      <c r="I62" s="3">
         <v>11100</v>
       </c>
-      <c r="I62" s="3">
-        <v>13600</v>
-      </c>
       <c r="J62" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K62" s="3">
         <v>14000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,50 +4115,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>711400</v>
+        <v>750400</v>
       </c>
       <c r="E66" s="3">
-        <v>701800</v>
+        <v>712900</v>
       </c>
       <c r="F66" s="3">
-        <v>797600</v>
+        <v>703300</v>
       </c>
       <c r="G66" s="3">
-        <v>813700</v>
+        <v>799400</v>
       </c>
       <c r="H66" s="3">
-        <v>97400</v>
+        <v>815500</v>
       </c>
       <c r="I66" s="3">
-        <v>92900</v>
+        <v>97700</v>
       </c>
       <c r="J66" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K66" s="3">
         <v>155000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>144600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>142300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>132800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>163900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>160700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,50 +4465,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>451400</v>
+        <v>469900</v>
       </c>
       <c r="E72" s="3">
-        <v>437900</v>
+        <v>452400</v>
       </c>
       <c r="F72" s="3">
-        <v>351900</v>
+        <v>438900</v>
       </c>
       <c r="G72" s="3">
-        <v>342500</v>
+        <v>352600</v>
       </c>
       <c r="H72" s="3">
-        <v>220700</v>
+        <v>343200</v>
       </c>
       <c r="I72" s="3">
-        <v>214700</v>
+        <v>221200</v>
       </c>
       <c r="J72" s="3">
+        <v>215200</v>
+      </c>
+      <c r="K72" s="3">
         <v>208200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>197200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>193800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>183000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>191700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,50 +4725,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>451400</v>
+        <v>469900</v>
       </c>
       <c r="E76" s="3">
-        <v>437900</v>
+        <v>452400</v>
       </c>
       <c r="F76" s="3">
-        <v>351900</v>
+        <v>438900</v>
       </c>
       <c r="G76" s="3">
-        <v>342500</v>
+        <v>352600</v>
       </c>
       <c r="H76" s="3">
-        <v>220700</v>
+        <v>343200</v>
       </c>
       <c r="I76" s="3">
-        <v>214700</v>
+        <v>221200</v>
       </c>
       <c r="J76" s="3">
+        <v>215200</v>
+      </c>
+      <c r="K76" s="3">
         <v>208200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>197200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>193800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>183000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>191700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>98600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,64 +4855,67 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4733,59 +4925,62 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E81" s="3">
         <v>11300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4990,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,59 +5017,60 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G83" s="3">
         <v>10500</v>
       </c>
-      <c r="E83" s="3">
-        <v>5900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>10500</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3000</v>
       </c>
       <c r="I83" s="3">
         <v>3000</v>
       </c>
       <c r="J83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4881,8 +5080,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,59 +5405,62 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>23800</v>
       </c>
-      <c r="E89" s="3">
-        <v>-24800</v>
-      </c>
       <c r="F89" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="G89" s="3">
         <v>27600</v>
       </c>
-      <c r="G89" s="3">
-        <v>13300</v>
-      </c>
       <c r="H89" s="3">
+        <v>13400</v>
+      </c>
+      <c r="I89" s="3">
         <v>8400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6500</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5253,8 +5470,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,59 +5497,60 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-136900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-146500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2093900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-133700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2900</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5339,8 +5560,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,59 +5690,62 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29000</v>
+        <v>-27900</v>
       </c>
       <c r="E94" s="3">
-        <v>-20100</v>
+        <v>-29100</v>
       </c>
       <c r="F94" s="3">
-        <v>-12500</v>
+        <v>-20200</v>
       </c>
       <c r="G94" s="3">
-        <v>-400800</v>
+        <v>-12600</v>
       </c>
       <c r="H94" s="3">
+        <v>-401600</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
-        <v>23000</v>
-      </c>
       <c r="J94" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-114200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-97000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5525,8 +5755,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,59 +6040,62 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>390700</v>
-      </c>
       <c r="H100" s="3">
+        <v>391500</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-33100</v>
-      </c>
       <c r="J100" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-500</v>
       </c>
       <c r="L100" s="3">
         <v>-500</v>
       </c>
       <c r="M100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N100" s="3">
         <v>115600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>92500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>28800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5859,8 +6105,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,59 +6170,62 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-28600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4300</v>
       </c>
-      <c r="I102" s="3">
-        <v>-15300</v>
-      </c>
       <c r="J102" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>30300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5981,6 +6233,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VTRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="92">
   <si>
     <t>VTRU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -756,62 +757,65 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>105300</v>
+        <v>100300</v>
       </c>
       <c r="E8" s="3">
-        <v>89700</v>
+        <v>107200</v>
       </c>
       <c r="F8" s="3">
-        <v>86900</v>
+        <v>91300</v>
       </c>
       <c r="G8" s="3">
-        <v>80900</v>
+        <v>88600</v>
       </c>
       <c r="H8" s="3">
-        <v>62200</v>
+        <v>82400</v>
       </c>
       <c r="I8" s="3">
-        <v>35900</v>
+        <v>63300</v>
       </c>
       <c r="J8" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K8" s="3">
         <v>33500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>97100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>50200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>82300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>41900</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
@@ -821,62 +825,65 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>35400</v>
+        <v>34500</v>
       </c>
       <c r="E9" s="3">
-        <v>30500</v>
+        <v>36100</v>
       </c>
       <c r="F9" s="3">
-        <v>30400</v>
+        <v>31100</v>
       </c>
       <c r="G9" s="3">
-        <v>34100</v>
+        <v>30900</v>
       </c>
       <c r="H9" s="3">
-        <v>23800</v>
+        <v>34700</v>
       </c>
       <c r="I9" s="3">
-        <v>13100</v>
+        <v>24200</v>
       </c>
       <c r="J9" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K9" s="3">
         <v>12200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>41400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>37800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>18800</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,62 +893,65 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>69800</v>
+        <v>65900</v>
       </c>
       <c r="E10" s="3">
-        <v>59100</v>
+        <v>71100</v>
       </c>
       <c r="F10" s="3">
-        <v>56600</v>
+        <v>60200</v>
       </c>
       <c r="G10" s="3">
-        <v>46800</v>
+        <v>57600</v>
       </c>
       <c r="H10" s="3">
-        <v>38400</v>
+        <v>47700</v>
       </c>
       <c r="I10" s="3">
-        <v>22700</v>
+        <v>39100</v>
       </c>
       <c r="J10" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K10" s="3">
         <v>21300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>44600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
@@ -951,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,62 +1123,65 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>16100</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>9600</v>
+        <v>16400</v>
       </c>
       <c r="F14" s="3">
-        <v>16500</v>
+        <v>9800</v>
       </c>
       <c r="G14" s="3">
-        <v>8400</v>
+        <v>16800</v>
       </c>
       <c r="H14" s="3">
-        <v>7800</v>
+        <v>8500</v>
       </c>
       <c r="I14" s="3">
-        <v>5200</v>
+        <v>7900</v>
       </c>
       <c r="J14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K14" s="3">
         <v>6900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4500</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,31 +1191,34 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>6800</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="F15" s="3">
-        <v>6300</v>
+        <v>6700</v>
       </c>
       <c r="G15" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="H15" s="3">
-        <v>2800</v>
+        <v>6400</v>
       </c>
       <c r="I15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
@@ -1203,8 +1226,8 @@
       <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+      <c r="M15" s="3">
+        <v>500</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
@@ -1218,8 +1241,8 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,62 +1284,63 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>79900</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>69300</v>
+        <v>81400</v>
       </c>
       <c r="F17" s="3">
-        <v>75600</v>
+        <v>70600</v>
       </c>
       <c r="G17" s="3">
-        <v>64800</v>
+        <v>77000</v>
       </c>
       <c r="H17" s="3">
-        <v>54200</v>
+        <v>66000</v>
       </c>
       <c r="I17" s="3">
-        <v>30800</v>
+        <v>55200</v>
       </c>
       <c r="J17" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K17" s="3">
         <v>28700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>85700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>88700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>42800</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1323,62 +1350,65 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>25400</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>20400</v>
+        <v>25900</v>
       </c>
       <c r="F18" s="3">
+        <v>20800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O18" s="3">
         <v>11400</v>
       </c>
-      <c r="G18" s="3">
-        <v>16100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>6600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>11400</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1388,8 +1418,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,62 +1446,63 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1478,62 +1512,65 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>37200</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>32000</v>
+        <v>48700</v>
       </c>
       <c r="F21" s="3">
-        <v>18300</v>
+        <v>6400</v>
       </c>
       <c r="G21" s="3">
-        <v>29400</v>
+        <v>18600</v>
       </c>
       <c r="H21" s="3">
-        <v>15400</v>
+        <v>29900</v>
       </c>
       <c r="I21" s="3">
-        <v>10200</v>
+        <v>18700</v>
       </c>
       <c r="J21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K21" s="3">
         <v>9400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>14400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1543,62 +1580,65 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>14000</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>16100</v>
+        <v>14200</v>
       </c>
       <c r="F22" s="3">
-        <v>17400</v>
+        <v>16400</v>
       </c>
       <c r="G22" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="H22" s="3">
-        <v>10800</v>
+        <v>17500</v>
       </c>
       <c r="I22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5200</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1608,62 +1648,65 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12400</v>
+        <v>6500</v>
       </c>
       <c r="E23" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J23" s="3">
         <v>5400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1673,62 +1716,65 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>-5100</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>-6000</v>
+        <v>-5200</v>
       </c>
       <c r="F24" s="3">
-        <v>-7600</v>
+        <v>-6100</v>
       </c>
       <c r="G24" s="3">
-        <v>-5500</v>
+        <v>-7800</v>
       </c>
       <c r="H24" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="I24" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,8 +1784,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,62 +1852,65 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>17600</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>11300</v>
+        <v>17900</v>
       </c>
       <c r="F26" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G26" s="3">
         <v>2600</v>
       </c>
-      <c r="G26" s="3">
-        <v>7200</v>
-      </c>
       <c r="H26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>600</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N26" s="3">
         <v>4200</v>
       </c>
-      <c r="I26" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4500</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,62 +1920,65 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>17600</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>11300</v>
+        <v>17900</v>
       </c>
       <c r="F27" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G27" s="3">
         <v>2600</v>
       </c>
-      <c r="G27" s="3">
-        <v>7200</v>
-      </c>
       <c r="H27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K27" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N27" s="3">
         <v>4200</v>
       </c>
-      <c r="I27" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1933,8 +1988,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,62 +2260,65 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,62 +2328,65 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>17600</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>11300</v>
+        <v>17900</v>
       </c>
       <c r="F33" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G33" s="3">
         <v>2600</v>
       </c>
-      <c r="G33" s="3">
-        <v>7200</v>
-      </c>
       <c r="H33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N33" s="3">
         <v>4200</v>
       </c>
-      <c r="I33" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2396,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,62 +2464,65 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>17600</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>11300</v>
+        <v>17900</v>
       </c>
       <c r="F35" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G35" s="3">
         <v>2600</v>
       </c>
-      <c r="G35" s="3">
-        <v>7200</v>
-      </c>
       <c r="H35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N35" s="3">
         <v>4200</v>
       </c>
-      <c r="I35" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,67 +2532,70 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2523,8 +2605,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,53 +2659,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>16900</v>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>3200</v>
+        <v>17200</v>
       </c>
       <c r="F41" s="3">
-        <v>9500</v>
+        <v>3300</v>
       </c>
       <c r="G41" s="3">
-        <v>38200</v>
+        <v>9700</v>
       </c>
       <c r="H41" s="3">
-        <v>22800</v>
+        <v>38900</v>
       </c>
       <c r="I41" s="3">
-        <v>19500</v>
+        <v>23300</v>
       </c>
       <c r="J41" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K41" s="3">
         <v>15300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,53 +2725,56 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>51400</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>30400</v>
+        <v>52300</v>
       </c>
       <c r="F42" s="3">
-        <v>5300</v>
+        <v>31000</v>
       </c>
       <c r="G42" s="3">
-        <v>12800</v>
+        <v>5400</v>
       </c>
       <c r="H42" s="3">
-        <v>37400</v>
+        <v>13000</v>
       </c>
       <c r="I42" s="3">
-        <v>52300</v>
+        <v>38100</v>
       </c>
       <c r="J42" s="3">
+        <v>53300</v>
+      </c>
+      <c r="K42" s="3">
         <v>51100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>99100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>94100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>100200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>96400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>110700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15700</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,53 +2793,56 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>66800</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>58000</v>
+        <v>68100</v>
       </c>
       <c r="F43" s="3">
-        <v>53100</v>
+        <v>59100</v>
       </c>
       <c r="G43" s="3">
-        <v>54500</v>
+        <v>54100</v>
       </c>
       <c r="H43" s="3">
-        <v>55600</v>
+        <v>55500</v>
       </c>
       <c r="I43" s="3">
-        <v>32500</v>
+        <v>56600</v>
       </c>
       <c r="J43" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K43" s="3">
         <v>29900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2768,8 +2861,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,53 +2929,56 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>13300</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="F45" s="3">
-        <v>7000</v>
+        <v>8200</v>
       </c>
       <c r="G45" s="3">
-        <v>6400</v>
+        <v>7200</v>
       </c>
       <c r="H45" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="I45" s="3">
-        <v>9200</v>
+        <v>6700</v>
       </c>
       <c r="J45" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K45" s="3">
         <v>7600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>2500</v>
       </c>
       <c r="O45" s="3">
         <v>2500</v>
       </c>
       <c r="P45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>9700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,53 +2997,56 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>148300</v>
+      <c r="D46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>99700</v>
+        <v>151100</v>
       </c>
       <c r="F46" s="3">
-        <v>75000</v>
+        <v>101500</v>
       </c>
       <c r="G46" s="3">
-        <v>111800</v>
+        <v>76400</v>
       </c>
       <c r="H46" s="3">
-        <v>122300</v>
+        <v>113900</v>
       </c>
       <c r="I46" s="3">
-        <v>113600</v>
+        <v>124600</v>
       </c>
       <c r="J46" s="3">
+        <v>115700</v>
+      </c>
+      <c r="K46" s="3">
         <v>103900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>162500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>150600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>146000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>136900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>169900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>77700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,28 +3065,31 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>19100</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G47" s="3">
         <v>19600</v>
       </c>
-      <c r="F47" s="3">
-        <v>19200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>15700</v>
-      </c>
       <c r="H47" s="3">
-        <v>6700</v>
+        <v>16000</v>
       </c>
       <c r="I47" s="3">
-        <v>1200</v>
+        <v>6800</v>
       </c>
       <c r="J47" s="3">
         <v>1200</v>
@@ -2996,7 +3101,7 @@
         <v>1200</v>
       </c>
       <c r="M47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N47" s="3">
         <v>1300</v>
@@ -3005,11 +3110,11 @@
         <v>1300</v>
       </c>
       <c r="P47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q47" s="3">
         <v>700</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,53 +3133,56 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>108100</v>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E48" s="3">
-        <v>108700</v>
+        <v>110100</v>
       </c>
       <c r="F48" s="3">
-        <v>110000</v>
+        <v>110700</v>
       </c>
       <c r="G48" s="3">
-        <v>110000</v>
+        <v>112100</v>
       </c>
       <c r="H48" s="3">
-        <v>111000</v>
+        <v>112000</v>
       </c>
       <c r="I48" s="3">
-        <v>49400</v>
+        <v>113100</v>
       </c>
       <c r="J48" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K48" s="3">
         <v>49000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>42000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>42700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>38000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,53 +3201,56 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>886400</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>889300</v>
+        <v>903100</v>
       </c>
       <c r="F49" s="3">
-        <v>893700</v>
+        <v>905900</v>
       </c>
       <c r="G49" s="3">
-        <v>911600</v>
+        <v>910500</v>
       </c>
       <c r="H49" s="3">
-        <v>916200</v>
+        <v>928700</v>
       </c>
       <c r="I49" s="3">
-        <v>135700</v>
+        <v>933400</v>
       </c>
       <c r="J49" s="3">
+        <v>138300</v>
+      </c>
+      <c r="K49" s="3">
         <v>135300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>134600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>128000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>123700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>129600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>129300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,53 +3405,56 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>58400</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>48100</v>
+        <v>59500</v>
       </c>
       <c r="F52" s="3">
-        <v>44400</v>
+        <v>49000</v>
       </c>
       <c r="G52" s="3">
-        <v>2900</v>
+        <v>45200</v>
       </c>
       <c r="H52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
-        <v>19000</v>
-      </c>
       <c r="J52" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K52" s="3">
         <v>18900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,53 +3541,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1220300</v>
+        <v>1264600</v>
       </c>
       <c r="E54" s="3">
-        <v>1165300</v>
+        <v>1243200</v>
       </c>
       <c r="F54" s="3">
-        <v>1142200</v>
+        <v>1187200</v>
       </c>
       <c r="G54" s="3">
-        <v>1152000</v>
+        <v>1163700</v>
       </c>
       <c r="H54" s="3">
-        <v>1158700</v>
+        <v>1173600</v>
       </c>
       <c r="I54" s="3">
-        <v>318800</v>
+        <v>1180500</v>
       </c>
       <c r="J54" s="3">
+        <v>324800</v>
+      </c>
+      <c r="K54" s="3">
         <v>308300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>363200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>341700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>336100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>315800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>355500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>259200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,53 +3663,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>125000</v>
+        <v>478400</v>
       </c>
       <c r="E57" s="3">
-        <v>14500</v>
+        <v>127400</v>
       </c>
       <c r="F57" s="3">
-        <v>20100</v>
+        <v>14700</v>
       </c>
       <c r="G57" s="3">
-        <v>45000</v>
+        <v>20500</v>
       </c>
       <c r="H57" s="3">
-        <v>185300</v>
+        <v>45800</v>
       </c>
       <c r="I57" s="3">
-        <v>43300</v>
+        <v>188700</v>
       </c>
       <c r="J57" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K57" s="3">
         <v>38600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,53 +3729,56 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>56600</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>47900</v>
+        <v>57600</v>
       </c>
       <c r="F58" s="3">
-        <v>36800</v>
+        <v>48800</v>
       </c>
       <c r="G58" s="3">
-        <v>30400</v>
+        <v>37500</v>
       </c>
       <c r="H58" s="3">
-        <v>10900</v>
+        <v>30900</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>5500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>34500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>34200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>32800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,53 +3797,56 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>31500</v>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>25400</v>
+        <v>32100</v>
       </c>
       <c r="F59" s="3">
-        <v>22200</v>
+        <v>25800</v>
       </c>
       <c r="G59" s="3">
-        <v>30400</v>
+        <v>22700</v>
       </c>
       <c r="H59" s="3">
-        <v>25100</v>
+        <v>31000</v>
       </c>
       <c r="I59" s="3">
-        <v>15600</v>
+        <v>25600</v>
       </c>
       <c r="J59" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,53 +3865,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>213100</v>
+      <c r="D60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>87700</v>
+        <v>217100</v>
       </c>
       <c r="F60" s="3">
-        <v>79200</v>
+        <v>89400</v>
       </c>
       <c r="G60" s="3">
-        <v>105800</v>
+        <v>80700</v>
       </c>
       <c r="H60" s="3">
-        <v>221300</v>
+        <v>107800</v>
       </c>
       <c r="I60" s="3">
-        <v>59000</v>
+        <v>225400</v>
       </c>
       <c r="J60" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K60" s="3">
         <v>52300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>49000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>50300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3793,53 +3933,56 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>369300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>355800</v>
+        <v>376200</v>
       </c>
       <c r="F61" s="3">
-        <v>355500</v>
+        <v>362500</v>
       </c>
       <c r="G61" s="3">
-        <v>442300</v>
+        <v>362100</v>
       </c>
       <c r="H61" s="3">
-        <v>449100</v>
+        <v>450600</v>
       </c>
       <c r="I61" s="3">
-        <v>27600</v>
+        <v>457500</v>
       </c>
       <c r="J61" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K61" s="3">
         <v>27100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>55400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>52100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>51000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>49700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>103800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>100000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3858,53 +4001,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>168000</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>269300</v>
+        <v>171200</v>
       </c>
       <c r="F62" s="3">
-        <v>268700</v>
+        <v>274400</v>
       </c>
       <c r="G62" s="3">
-        <v>251300</v>
+        <v>273700</v>
       </c>
       <c r="H62" s="3">
-        <v>145100</v>
+        <v>256100</v>
       </c>
       <c r="I62" s="3">
-        <v>11100</v>
+        <v>147900</v>
       </c>
       <c r="J62" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K62" s="3">
         <v>13700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,53 +4273,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>750400</v>
+      <c r="D66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E66" s="3">
-        <v>712900</v>
+        <v>764400</v>
       </c>
       <c r="F66" s="3">
-        <v>703300</v>
+        <v>726300</v>
       </c>
       <c r="G66" s="3">
-        <v>799400</v>
+        <v>716600</v>
       </c>
       <c r="H66" s="3">
-        <v>815500</v>
+        <v>814400</v>
       </c>
       <c r="I66" s="3">
-        <v>97700</v>
+        <v>830800</v>
       </c>
       <c r="J66" s="3">
+        <v>99500</v>
+      </c>
+      <c r="K66" s="3">
         <v>93100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>155000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>144600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>142300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>132800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>163900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>160700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,53 +4639,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>469900</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>452400</v>
+        <v>478800</v>
       </c>
       <c r="F72" s="3">
-        <v>438900</v>
+        <v>460900</v>
       </c>
       <c r="G72" s="3">
-        <v>352600</v>
+        <v>447100</v>
       </c>
       <c r="H72" s="3">
-        <v>343200</v>
+        <v>359200</v>
       </c>
       <c r="I72" s="3">
-        <v>221200</v>
+        <v>349700</v>
       </c>
       <c r="J72" s="3">
+        <v>225300</v>
+      </c>
+      <c r="K72" s="3">
         <v>215200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>208200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>197200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>193800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>183000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>191700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,53 +4911,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>469900</v>
+        <v>478400</v>
       </c>
       <c r="E76" s="3">
-        <v>452400</v>
+        <v>478800</v>
       </c>
       <c r="F76" s="3">
-        <v>438900</v>
+        <v>460900</v>
       </c>
       <c r="G76" s="3">
-        <v>352600</v>
+        <v>447100</v>
       </c>
       <c r="H76" s="3">
-        <v>343200</v>
+        <v>359300</v>
       </c>
       <c r="I76" s="3">
-        <v>221200</v>
+        <v>349700</v>
       </c>
       <c r="J76" s="3">
+        <v>225300</v>
+      </c>
+      <c r="K76" s="3">
         <v>215200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>208200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>197200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>193800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>183000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>191700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>98600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,67 +5047,70 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4928,62 +5120,65 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>17600</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>11300</v>
+        <v>17900</v>
       </c>
       <c r="F81" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G81" s="3">
         <v>2600</v>
       </c>
-      <c r="G81" s="3">
-        <v>7200</v>
-      </c>
       <c r="H81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N81" s="3">
         <v>4200</v>
       </c>
-      <c r="I81" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4993,8 +5188,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,62 +5216,63 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>10800</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>10600</v>
+        <v>21800</v>
       </c>
       <c r="F83" s="3">
-        <v>5900</v>
+        <v>-15400</v>
       </c>
       <c r="G83" s="3">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="H83" s="3">
-        <v>6300</v>
+        <v>10700</v>
       </c>
       <c r="I83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5083,8 +5282,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,62 +5622,65 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>4100</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>23800</v>
+        <v>28500</v>
       </c>
       <c r="F89" s="3">
-        <v>-24900</v>
+        <v>-700</v>
       </c>
       <c r="G89" s="3">
-        <v>27600</v>
+        <v>-25300</v>
       </c>
       <c r="H89" s="3">
-        <v>13400</v>
+        <v>28100</v>
       </c>
       <c r="I89" s="3">
-        <v>8400</v>
+        <v>22200</v>
       </c>
       <c r="J89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6500</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5473,8 +5690,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,8 +5718,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5525,35 +5746,35 @@
         <v>-133700</v>
       </c>
       <c r="K91" s="3">
+        <v>-133700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-17200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2900</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5563,8 +5784,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,62 +5920,65 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-27900</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-29100</v>
+        <v>-58100</v>
       </c>
       <c r="F94" s="3">
-        <v>-20200</v>
+        <v>414900</v>
       </c>
       <c r="G94" s="3">
-        <v>-12600</v>
+        <v>-20500</v>
       </c>
       <c r="H94" s="3">
-        <v>-401600</v>
+        <v>-12800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2000</v>
+        <v>-411300</v>
       </c>
       <c r="J94" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="K94" s="3">
         <v>23100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-114200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-97000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5758,8 +5988,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,62 +6286,65 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>37500</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>-1000</v>
+        <v>37100</v>
       </c>
       <c r="F100" s="3">
-        <v>16400</v>
+        <v>-414800</v>
       </c>
       <c r="G100" s="3">
+        <v>16700</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>391500</v>
-      </c>
       <c r="I100" s="3">
-        <v>-2100</v>
+        <v>396800</v>
       </c>
       <c r="J100" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-33200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-500</v>
       </c>
       <c r="M100" s="3">
         <v>-500</v>
       </c>
       <c r="N100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O100" s="3">
         <v>115600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>92500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>28800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6108,8 +6354,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,62 +6422,65 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>13600</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-6300</v>
+        <v>7500</v>
       </c>
       <c r="F102" s="3">
-        <v>-28600</v>
+        <v>-600</v>
       </c>
       <c r="G102" s="3">
-        <v>15300</v>
+        <v>-29200</v>
       </c>
       <c r="H102" s="3">
-        <v>3300</v>
+        <v>15600</v>
       </c>
       <c r="I102" s="3">
-        <v>4300</v>
+        <v>7700</v>
       </c>
       <c r="J102" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-15400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>30300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6236,6 +6488,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
